--- a/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Element</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>GWP [kg*CO2-eq/kg]</t>
+  </si>
+  <si>
+    <t>Income tax [%]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,40 +794,40 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>-0.003211808204118082</v>
+        <v>0.01080214626002146</v>
       </c>
       <c r="D4">
-        <v>-0.0116097503960975</v>
+        <v>0.00151221894312219</v>
       </c>
       <c r="F4">
-        <v>0.007725597161255972</v>
+        <v>-0.0105000399090004</v>
       </c>
       <c r="G4">
-        <v>-0.01039415039351892</v>
+        <v>-0.01250489041275983</v>
       </c>
       <c r="H4">
-        <v>0.004345661999085979</v>
+        <v>-0.002418120411021756</v>
       </c>
       <c r="I4">
-        <v>-0.001095487714954877</v>
+        <v>-0.001743410765434108</v>
       </c>
       <c r="J4">
-        <v>-0.01446228034443983</v>
+        <v>-0.008278779962030608</v>
       </c>
       <c r="K4">
-        <v>0.002786223747862237</v>
+        <v>-4.83436204834362E-05</v>
       </c>
       <c r="L4">
-        <v>0.002232670066326701</v>
+        <v>-0.0009224457452244575</v>
       </c>
       <c r="P4">
-        <v>0.002160046353600463</v>
+        <v>-0.000904548513045485</v>
       </c>
       <c r="Q4">
-        <v>0.002201557798015578</v>
+        <v>-0.0009358662213586622</v>
       </c>
       <c r="R4">
-        <v>0.002201557798015578</v>
+        <v>-0.0009358662213586622</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -833,40 +836,40 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.0002374828103748281</v>
+        <v>-0.003003192942031929</v>
       </c>
       <c r="D5">
-        <v>-0.002939783177397832</v>
+        <v>0.0009778538137785381</v>
       </c>
       <c r="F5">
-        <v>0.003611615760116157</v>
+        <v>0.00102692503026925</v>
       </c>
       <c r="G5">
-        <v>-0.005321852195815603</v>
+        <v>-8.307015898194919E-05</v>
       </c>
       <c r="H5">
-        <v>0.005251101653226829</v>
+        <v>0.001436059172670137</v>
       </c>
       <c r="I5">
-        <v>-0.003566968367669684</v>
+        <v>0.0002557752145577522</v>
       </c>
       <c r="J5">
-        <v>0.0004364888598362605</v>
+        <v>-0.01265543107524944</v>
       </c>
       <c r="K5">
-        <v>0.004254746874547469</v>
+        <v>0.002670387818703878</v>
       </c>
       <c r="L5">
-        <v>0.004665094438650944</v>
+        <v>0.002786119719861197</v>
       </c>
       <c r="P5">
-        <v>0.004576217769762177</v>
+        <v>0.002775353271753532</v>
       </c>
       <c r="Q5">
-        <v>0.004647905638479057</v>
+        <v>0.0027833500118335</v>
       </c>
       <c r="R5">
-        <v>0.004647905638479057</v>
+        <v>0.0027833500118335</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -875,40 +878,40 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.3636121187641212</v>
+        <v>0.354778302307783</v>
       </c>
       <c r="D6">
-        <v>0.005496748062967481</v>
+        <v>-0.02621256331012563</v>
       </c>
       <c r="F6">
-        <v>-0.009501963419019635</v>
+        <v>0.02193382949133829</v>
       </c>
       <c r="G6">
-        <v>0.00810767000928476</v>
+        <v>0.01237070745309813</v>
       </c>
       <c r="H6">
-        <v>-0.02133399829417424</v>
+        <v>0.01332260527955622</v>
       </c>
       <c r="I6">
-        <v>-0.5697095987010959</v>
+        <v>-0.5943589160075892</v>
       </c>
       <c r="J6">
-        <v>0.01885528410369365</v>
+        <v>0.008937060053321124</v>
       </c>
       <c r="K6">
-        <v>-0.02282342167223422</v>
+        <v>0.01144136669441367</v>
       </c>
       <c r="L6">
-        <v>-0.02209503799695038</v>
+        <v>0.01134901656549017</v>
       </c>
       <c r="P6">
-        <v>-0.02195799549957995</v>
+        <v>0.01134952322949523</v>
       </c>
       <c r="Q6">
-        <v>-0.02205182611651826</v>
+        <v>0.01133263241332632</v>
       </c>
       <c r="R6">
-        <v>-0.02205182611651826</v>
+        <v>0.01133263241332632</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -917,40 +920,40 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.01550155792701558</v>
+        <v>0.003832337558323376</v>
       </c>
       <c r="D7">
-        <v>-0.003539119187391192</v>
+        <v>0.02194901197549012</v>
       </c>
       <c r="F7">
-        <v>-0.002074978808749788</v>
+        <v>0.001276601472766015</v>
       </c>
       <c r="G7">
-        <v>0.007736117691257254</v>
+        <v>-0.000838965010184826</v>
       </c>
       <c r="H7">
-        <v>0.01048046927702733</v>
+        <v>-0.001456958511983674</v>
       </c>
       <c r="I7">
-        <v>-0.01227559399475594</v>
+        <v>0.02556667485966675</v>
       </c>
       <c r="J7">
-        <v>0.01179325717383446</v>
+        <v>-0.0266211158046542</v>
       </c>
       <c r="K7">
-        <v>0.01337684684576847</v>
+        <v>-0.001154105495541055</v>
       </c>
       <c r="L7">
-        <v>0.01275281404352814</v>
+        <v>-0.001307325169073252</v>
       </c>
       <c r="P7">
-        <v>0.01280158740801587</v>
+        <v>-0.001319077573190776</v>
       </c>
       <c r="Q7">
-        <v>0.01276873443168735</v>
+        <v>-0.001305128833051288</v>
       </c>
       <c r="R7">
-        <v>0.01276873443168735</v>
+        <v>-0.001305128833051288</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -959,40 +962,40 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.3191689716716897</v>
+        <v>0.2988218832242188</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.01241917888019179</v>
+        <v>-0.009816383126163833</v>
       </c>
       <c r="G8">
-        <v>-0.01589140226643005</v>
+        <v>-0.02937401658091367</v>
       </c>
       <c r="H8">
-        <v>-0.004369104099713629</v>
+        <v>-0.009290392497107459</v>
       </c>
       <c r="I8">
-        <v>0.7442490961824909</v>
+        <v>0.7469607722216077</v>
       </c>
       <c r="J8">
-        <v>-0.003132073341283593</v>
+        <v>-0.009005877230383597</v>
       </c>
       <c r="K8">
-        <v>-0.002402086812020868</v>
+        <v>-0.009983462079834622</v>
       </c>
       <c r="L8">
-        <v>-0.002680013186800132</v>
+        <v>-0.009547626347476263</v>
       </c>
       <c r="P8">
-        <v>-0.002513146741131467</v>
+        <v>-0.009546904475469044</v>
       </c>
       <c r="Q8">
-        <v>-0.002636254658362547</v>
+        <v>-0.009556784219567844</v>
       </c>
       <c r="R8">
-        <v>-0.002636254658362547</v>
+        <v>-0.009556784219567844</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1003,40 +1006,40 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.5232558118685581</v>
+        <v>0.3769159289291593</v>
       </c>
       <c r="D9">
-        <v>0.02306001840260018</v>
+        <v>-0.009849915098499151</v>
       </c>
       <c r="F9">
-        <v>0.02222227587022276</v>
+        <v>0.004433135564331355</v>
       </c>
       <c r="G9">
-        <v>-0.01273114033445271</v>
+        <v>0.008881869335043297</v>
       </c>
       <c r="H9">
-        <v>0.01867210615213404</v>
+        <v>-0.003800141051474812</v>
       </c>
       <c r="I9">
-        <v>0.0261882501578825</v>
+        <v>0.00191133395511334</v>
       </c>
       <c r="J9">
-        <v>-0.003649793521694806</v>
+        <v>-0.0004908831002083623</v>
       </c>
       <c r="K9">
-        <v>0.01730604772106048</v>
+        <v>-0.004137721649377217</v>
       </c>
       <c r="L9">
-        <v>0.01783970252239703</v>
+        <v>-0.004181390849813909</v>
       </c>
       <c r="P9">
-        <v>0.01798665723586657</v>
+        <v>-0.004245514050455141</v>
       </c>
       <c r="Q9">
-        <v>0.01785042931050429</v>
+        <v>-0.004188791681887916</v>
       </c>
       <c r="R9">
-        <v>0.01785042931050429</v>
+        <v>-0.004188791681887916</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1047,40 +1050,40 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.4221431097454311</v>
+        <v>0.5574921559509216</v>
       </c>
       <c r="D10">
-        <v>-0.006359613351596133</v>
+        <v>-0.006061106124611061</v>
       </c>
       <c r="F10">
-        <v>-0.009612276744122768</v>
+        <v>0.008304715655047156</v>
       </c>
       <c r="G10">
-        <v>0.004785102357117451</v>
+        <v>0.004238531629010168</v>
       </c>
       <c r="H10">
-        <v>-0.005407752151369191</v>
+        <v>0.01163876465119221</v>
       </c>
       <c r="I10">
-        <v>0.005294950468949505</v>
+        <v>-0.01012023258520233</v>
       </c>
       <c r="J10">
-        <v>0.009809145046940091</v>
+        <v>-0.006924136504182038</v>
       </c>
       <c r="K10">
-        <v>-0.0040356399523564</v>
+        <v>0.01046011468460115</v>
       </c>
       <c r="L10">
-        <v>-0.003792831685928317</v>
+        <v>0.01104638447046384</v>
       </c>
       <c r="P10">
-        <v>-0.003970214559702145</v>
+        <v>0.01101179673811797</v>
       </c>
       <c r="Q10">
-        <v>-0.003814151402141514</v>
+        <v>0.01103683446236835</v>
       </c>
       <c r="R10">
-        <v>-0.003814151402141514</v>
+        <v>0.01103683446236835</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1091,40 +1094,40 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.001914596875145969</v>
+        <v>6.707301667073016E-05</v>
       </c>
       <c r="D11">
-        <v>-0.002171633421716334</v>
+        <v>-1.081171210811712E-05</v>
       </c>
       <c r="F11">
-        <v>0.005996857235968571</v>
+        <v>-0.003084243210842432</v>
       </c>
       <c r="G11">
-        <v>-0.009436477053571361</v>
+        <v>0.01261869563231162</v>
       </c>
       <c r="H11">
-        <v>0.006253139911066224</v>
+        <v>-0.008229048482262391</v>
       </c>
       <c r="I11">
-        <v>-0.003943653195436532</v>
+        <v>0.008494294644942947</v>
       </c>
       <c r="J11">
-        <v>0.002791732486495128</v>
+        <v>-0.002454951878608941</v>
       </c>
       <c r="K11">
-        <v>0.005239486696394867</v>
+        <v>-0.009225311444253115</v>
       </c>
       <c r="L11">
-        <v>0.005218947196189472</v>
+        <v>-0.008399745719997458</v>
       </c>
       <c r="P11">
-        <v>0.005185816731858167</v>
+        <v>-0.008359366007593658</v>
       </c>
       <c r="Q11">
-        <v>0.00522347098023471</v>
+        <v>-0.00838369703983697</v>
       </c>
       <c r="R11">
-        <v>0.00522347098023471</v>
+        <v>-0.00838369703983697</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1135,40 +1138,40 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>-0.003255036404550364</v>
+        <v>0.01893634331736343</v>
       </c>
       <c r="D12">
-        <v>-0.003981231303812314</v>
+        <v>0.01840892352408923</v>
       </c>
       <c r="F12">
-        <v>0.009187338547873385</v>
+        <v>0.0104862902968629</v>
       </c>
       <c r="G12">
-        <v>0.008094783007757995</v>
+        <v>0.001315588965103805</v>
       </c>
       <c r="H12">
-        <v>0.004583904211370079</v>
+        <v>0.02154842977232772</v>
       </c>
       <c r="I12">
-        <v>-0.004146865013468651</v>
+        <v>0.006143799601437996</v>
       </c>
       <c r="J12">
-        <v>0.000190890438051036</v>
+        <v>-0.004910278722313414</v>
       </c>
       <c r="K12">
-        <v>0.0042825799868258</v>
+        <v>0.02287958815279588</v>
       </c>
       <c r="L12">
-        <v>0.00387244694672447</v>
+        <v>0.02292127422121274</v>
       </c>
       <c r="P12">
-        <v>0.003980260059802601</v>
+        <v>0.02299414272194143</v>
       </c>
       <c r="Q12">
-        <v>0.003903338235033382</v>
+        <v>0.02294287393342874</v>
       </c>
       <c r="R12">
-        <v>0.003903338235033382</v>
+        <v>0.02294287393342874</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1179,40 +1182,40 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>-0.0137036398730364</v>
+        <v>-0.007852825806528258</v>
       </c>
       <c r="D13">
-        <v>-0.002156053365560533</v>
+        <v>-0.02004360854043609</v>
       </c>
       <c r="F13">
-        <v>-0.01399460910794609</v>
+        <v>-0.002579464585794646</v>
       </c>
       <c r="G13">
-        <v>-0.009743448619345063</v>
+        <v>0.01639248125573622</v>
       </c>
       <c r="H13">
-        <v>-0.01520873468916871</v>
+        <v>-0.006411973941770424</v>
       </c>
       <c r="I13">
-        <v>0.001405786574057866</v>
+        <v>-0.01262923426229234</v>
       </c>
       <c r="J13">
-        <v>0.007406763618787001</v>
+        <v>0.02063641120120117</v>
       </c>
       <c r="K13">
-        <v>-0.01421962585019626</v>
+        <v>-0.006882128924821289</v>
       </c>
       <c r="L13">
-        <v>-0.01501318609813186</v>
+        <v>-0.007314780217147802</v>
       </c>
       <c r="P13">
-        <v>-0.01497858832178588</v>
+        <v>-0.007386052921860529</v>
       </c>
       <c r="Q13">
-        <v>-0.01499490346194903</v>
+        <v>-0.007358082877580828</v>
       </c>
       <c r="R13">
-        <v>-0.01499490346194903</v>
+        <v>-0.007358082877580828</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1221,40 +1224,40 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.4371570315875703</v>
+        <v>-0.4112763511047635</v>
       </c>
       <c r="D14">
-        <v>0.0122786597307866</v>
+        <v>-0.003031562910315629</v>
       </c>
       <c r="F14">
-        <v>-0.008055821480558216</v>
+        <v>0.002048863328488633</v>
       </c>
       <c r="G14">
-        <v>0.01163664394665451</v>
+        <v>0.01321389735726085</v>
       </c>
       <c r="H14">
-        <v>-0.002750428029983</v>
+        <v>-0.01070588427667679</v>
       </c>
       <c r="I14">
-        <v>0.01624710550247106</v>
+        <v>-0.01474451205944512</v>
       </c>
       <c r="J14">
-        <v>-0.00579496288569453</v>
+        <v>-0.002868523222936301</v>
       </c>
       <c r="K14">
-        <v>-0.0005350269413502694</v>
+        <v>-0.01230737773507378</v>
       </c>
       <c r="L14">
-        <v>-0.001326330877263309</v>
+        <v>-0.01241820272818203</v>
       </c>
       <c r="P14">
-        <v>-0.001224732060247321</v>
+        <v>-0.01236786645967866</v>
       </c>
       <c r="Q14">
-        <v>-0.00131489205714892</v>
+        <v>-0.012403100332031</v>
       </c>
       <c r="R14">
-        <v>-0.00131489205714892</v>
+        <v>-0.012403100332031</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1265,40 +1268,40 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.0001550034495500345</v>
+        <v>0.0117427695934277</v>
       </c>
       <c r="D15">
-        <v>-0.004798577807985778</v>
+        <v>-0.002824025776240258</v>
       </c>
       <c r="F15">
-        <v>-0.003147839851478399</v>
+        <v>0.002094017432940174</v>
       </c>
       <c r="G15">
-        <v>-0.01327200217282204</v>
+        <v>-0.003751484378507192</v>
       </c>
       <c r="H15">
-        <v>-0.00185289667422363</v>
+        <v>-0.003118775921542449</v>
       </c>
       <c r="I15">
-        <v>-0.002454092448540924</v>
+        <v>-0.005578426303784263</v>
       </c>
       <c r="J15">
-        <v>0.002104678230716195</v>
+        <v>-0.006816157650701276</v>
       </c>
       <c r="K15">
-        <v>-0.0001280838732808387</v>
+        <v>-0.004395542323955423</v>
       </c>
       <c r="L15">
-        <v>-0.0002163654141636542</v>
+        <v>-0.003442157098421571</v>
       </c>
       <c r="P15">
-        <v>-0.0002686062626860626</v>
+        <v>-0.003346304721463047</v>
       </c>
       <c r="Q15">
-        <v>-0.0002074182140741821</v>
+        <v>-0.003446795626467956</v>
       </c>
       <c r="R15">
-        <v>-0.0002074182140741821</v>
+        <v>-0.003446795626467956</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1309,40 +1312,40 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.01040983380809834</v>
+        <v>-0.003294698456946985</v>
       </c>
       <c r="D16">
-        <v>-0.02848500249285003</v>
+        <v>0.0007758225677582258</v>
       </c>
       <c r="F16">
-        <v>-0.009720253837202538</v>
+        <v>0.0006557983385579834</v>
       </c>
       <c r="G16">
-        <v>0.00852010193292054</v>
+        <v>-0.0164867434798925</v>
       </c>
       <c r="H16">
-        <v>-0.01066603507650718</v>
+        <v>-0.005096218211034628</v>
       </c>
       <c r="I16">
-        <v>-0.01668906967089069</v>
+        <v>0.00153395702733957</v>
       </c>
       <c r="J16">
-        <v>0.004345980773763245</v>
+        <v>-0.01704978438818862</v>
       </c>
       <c r="K16">
-        <v>-0.00980900099009001</v>
+        <v>-0.005218602496186026</v>
       </c>
       <c r="L16">
-        <v>-0.01004412494844125</v>
+        <v>-0.005229201532292016</v>
       </c>
       <c r="P16">
-        <v>-0.009927431139274311</v>
+        <v>-0.005313411677134117</v>
       </c>
       <c r="Q16">
-        <v>-0.01001383562813836</v>
+        <v>-0.005254364356543644</v>
       </c>
       <c r="R16">
-        <v>-0.01001383562813836</v>
+        <v>-0.005254364356543644</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1353,40 +1356,40 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>-0.01391537182315372</v>
+        <v>0.01641959740419598</v>
       </c>
       <c r="D17">
-        <v>0.003260992484609925</v>
+        <v>0.01176501519365015</v>
       </c>
       <c r="F17">
-        <v>-0.009492170806921708</v>
+        <v>0.003957391167573912</v>
       </c>
       <c r="G17">
-        <v>0.01725990567345207</v>
+        <v>-0.001542284555275954</v>
       </c>
       <c r="H17">
-        <v>-0.002390386881724968</v>
+        <v>0.005705420835936773</v>
       </c>
       <c r="I17">
-        <v>0.00516068703960687</v>
+        <v>-0.007704725165047252</v>
       </c>
       <c r="J17">
-        <v>0.004343034719669859</v>
+        <v>-0.02073844174530282</v>
       </c>
       <c r="K17">
-        <v>-0.0002014937540149376</v>
+        <v>0.005734298673342987</v>
       </c>
       <c r="L17">
-        <v>-0.0001495626854956268</v>
+        <v>0.005950905035509051</v>
       </c>
       <c r="P17">
-        <v>-0.0002300408183004082</v>
+        <v>0.005839851502398515</v>
       </c>
       <c r="Q17">
-        <v>-0.0001699431736994317</v>
+        <v>0.005932736855327369</v>
       </c>
       <c r="R17">
-        <v>-0.0001699431736994317</v>
+        <v>0.005932736855327369</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1397,40 +1400,40 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>-0.08240512178005122</v>
+        <v>-0.06579630736596308</v>
       </c>
       <c r="D18">
-        <v>-0.001949569399495694</v>
+        <v>-0.001414514918145149</v>
       </c>
       <c r="F18">
-        <v>-0.00434029603940296</v>
+        <v>0.002340428183404282</v>
       </c>
       <c r="G18">
-        <v>0.01253267447903539</v>
+        <v>0.01666939704081095</v>
       </c>
       <c r="H18">
-        <v>-0.01124389251526475</v>
+        <v>0.008864536670382265</v>
       </c>
       <c r="I18">
-        <v>0.002850227416502274</v>
+        <v>-0.006987430209874301</v>
       </c>
       <c r="J18">
-        <v>-0.01304560137553252</v>
+        <v>-0.003835572088353532</v>
       </c>
       <c r="K18">
-        <v>-0.01147186891871869</v>
+        <v>0.009363887973638879</v>
       </c>
       <c r="L18">
-        <v>-0.0113326701293267</v>
+        <v>0.009617594520175944</v>
       </c>
       <c r="P18">
-        <v>-0.01143569640635696</v>
+        <v>0.009554066183540662</v>
       </c>
       <c r="Q18">
-        <v>-0.01134752351347523</v>
+        <v>0.009592312919923128</v>
       </c>
       <c r="R18">
-        <v>-0.01134752351347523</v>
+        <v>0.009592312919923128</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1439,40 +1442,40 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>-0.07034584882345848</v>
+        <v>-0.05015956396559564</v>
       </c>
       <c r="D19">
-        <v>-0.001040220934402209</v>
+        <v>0.01707790277077903</v>
       </c>
       <c r="F19">
-        <v>-0.0135406697314067</v>
+        <v>-0.008666828906668289</v>
       </c>
       <c r="G19">
-        <v>0.002415604648398806</v>
+        <v>0.02144259526668678</v>
       </c>
       <c r="H19">
-        <v>-0.03583798595930621</v>
+        <v>-0.02386210175110352</v>
       </c>
       <c r="I19">
-        <v>0.008468487228684872</v>
+        <v>-0.001986706879867069</v>
       </c>
       <c r="J19">
-        <v>0.004217555275692285</v>
+        <v>-0.009439206560437672</v>
       </c>
       <c r="K19">
-        <v>-0.0376461399284614</v>
+        <v>-0.0269652691976527</v>
       </c>
       <c r="L19">
-        <v>-0.03719933074799331</v>
+        <v>-0.02588489573484896</v>
       </c>
       <c r="P19">
-        <v>-0.0372890097368901</v>
+        <v>-0.02600097270800973</v>
       </c>
       <c r="Q19">
-        <v>-0.03720762104407621</v>
+        <v>-0.02592378406323784</v>
       </c>
       <c r="R19">
-        <v>-0.03720762104407621</v>
+        <v>-0.02592378406323784</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1483,40 +1486,40 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.07244308966043089</v>
+        <v>-0.08333994331739944</v>
       </c>
       <c r="D20">
-        <v>0.008694975218949751</v>
+        <v>-0.007641676312416763</v>
       </c>
       <c r="F20">
-        <v>0.006421104328211044</v>
+        <v>-0.0006486020584860206</v>
       </c>
       <c r="G20">
-        <v>-0.003202572516588864</v>
+        <v>0.007397380615190078</v>
       </c>
       <c r="H20">
-        <v>0.005680554227225691</v>
+        <v>-0.002385551833921896</v>
       </c>
       <c r="I20">
-        <v>0.1305102599251026</v>
+        <v>0.1154791564707916</v>
       </c>
       <c r="J20">
-        <v>0.01315493685299835</v>
+        <v>-0.01950119811046017</v>
       </c>
       <c r="K20">
-        <v>0.006004771128047711</v>
+        <v>-0.002337100847371009</v>
       </c>
       <c r="L20">
-        <v>0.005599611739996118</v>
+        <v>-0.00213238804532388</v>
       </c>
       <c r="P20">
-        <v>0.005670767288707673</v>
+        <v>-0.002134410093344101</v>
       </c>
       <c r="Q20">
-        <v>0.005621655788216558</v>
+        <v>-0.002151316473513165</v>
       </c>
       <c r="R20">
-        <v>0.005621655788216558</v>
+        <v>-0.002151316473513165</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1527,40 +1530,40 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>0.08082255625622557</v>
+        <v>0.08181340170213403</v>
       </c>
       <c r="D21">
-        <v>-0.000906212205062122</v>
+        <v>0.004832216064322161</v>
       </c>
       <c r="F21">
-        <v>0.3362890686028907</v>
+        <v>0.3238908854749089</v>
       </c>
       <c r="G21">
-        <v>-0.04338490270456786</v>
+        <v>-0.0348868665601471</v>
       </c>
       <c r="H21">
-        <v>0.2824574534424609</v>
+        <v>0.2727571378320289</v>
       </c>
       <c r="I21">
-        <v>0.006607582818075828</v>
+        <v>0.02341872118218721</v>
       </c>
       <c r="J21">
-        <v>0.008825990265775066</v>
+        <v>0.004294508089222365</v>
       </c>
       <c r="K21">
-        <v>0.2412112529761125</v>
+        <v>0.2352379879803799</v>
       </c>
       <c r="L21">
-        <v>0.261361104249611</v>
+        <v>0.2543128799511288</v>
       </c>
       <c r="P21">
-        <v>0.2616970243449703</v>
+        <v>0.2546776296507763</v>
       </c>
       <c r="Q21">
-        <v>0.2614403266544033</v>
+        <v>0.2544057694560577</v>
       </c>
       <c r="R21">
-        <v>0.2614403266544033</v>
+        <v>0.2544057694560577</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1569,40 +1572,40 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.003751235413512354</v>
+        <v>-0.01362622571226226</v>
       </c>
       <c r="D22">
-        <v>0.00435194299951943</v>
+        <v>-7.972794079727941E-05</v>
       </c>
       <c r="F22">
-        <v>-0.006095490504954905</v>
+        <v>-0.0005952439379524394</v>
       </c>
       <c r="G22">
-        <v>-0.0001969736656552508</v>
+        <v>-0.004096695148270762</v>
       </c>
       <c r="H22">
-        <v>-0.006472022855058654</v>
+        <v>-0.00405424917734183</v>
       </c>
       <c r="I22">
-        <v>0.01207913192479132</v>
+        <v>0.01017545225375452</v>
       </c>
       <c r="J22">
-        <v>-0.001301016515240923</v>
+        <v>-0.002336823077473176</v>
       </c>
       <c r="K22">
-        <v>-0.006630948294309483</v>
+        <v>-0.004768819175688192</v>
       </c>
       <c r="L22">
-        <v>-0.005967818351678184</v>
+        <v>-0.004874346768743467</v>
       </c>
       <c r="P22">
-        <v>-0.006042635628426356</v>
+        <v>-0.004930593541305935</v>
       </c>
       <c r="Q22">
-        <v>-0.005985656483856565</v>
+        <v>-0.004894231740942318</v>
       </c>
       <c r="R22">
-        <v>-0.005985656483856565</v>
+        <v>-0.004894231740942318</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1611,40 +1614,40 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.116422900920229</v>
+        <v>0.1088045239160452</v>
       </c>
       <c r="D23">
-        <v>-0.01252184628521846</v>
+        <v>0.01001911825619118</v>
       </c>
       <c r="F23">
-        <v>0.3754096806580968</v>
+        <v>0.3716640644126407</v>
       </c>
       <c r="G23">
-        <v>-0.03136618476158255</v>
+        <v>-0.03413152785339573</v>
       </c>
       <c r="H23">
-        <v>0.3100068796320758</v>
+        <v>0.303986908079496</v>
       </c>
       <c r="I23">
-        <v>0.002839965160399651</v>
+        <v>0.01114916173549162</v>
       </c>
       <c r="J23">
-        <v>-0.0169403607569925</v>
+        <v>0.002656103162310683</v>
       </c>
       <c r="K23">
-        <v>0.2562697949466979</v>
+        <v>0.2583764537797645</v>
       </c>
       <c r="L23">
-        <v>0.2870414617224146</v>
+        <v>0.2797830591978306</v>
       </c>
       <c r="P23">
-        <v>0.2873053770290538</v>
+        <v>0.2801515151575152</v>
       </c>
       <c r="Q23">
-        <v>0.2870921084549211</v>
+        <v>0.2798727129267271</v>
       </c>
       <c r="R23">
-        <v>0.2870921084549211</v>
+        <v>0.2798727129267271</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1653,40 +1656,40 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>-0.0004929110209291102</v>
+        <v>-0.00781443309014433</v>
       </c>
       <c r="D24">
-        <v>0.001710453641104536</v>
+        <v>-0.01110188474701885</v>
       </c>
       <c r="F24">
-        <v>-0.01084175047241751</v>
+        <v>0.004602067558020675</v>
       </c>
       <c r="G24">
-        <v>0.0004296934236754511</v>
+        <v>0.009934144672912404</v>
       </c>
       <c r="H24">
-        <v>-0.01122244209636246</v>
+        <v>-0.008581154409375905</v>
       </c>
       <c r="I24">
-        <v>-0.005848933486489334</v>
+        <v>-0.01292283772522838</v>
       </c>
       <c r="J24">
-        <v>0.0106333069870652</v>
+        <v>-0.002101844066937295</v>
       </c>
       <c r="K24">
-        <v>-0.01087038871270389</v>
+        <v>-0.01071703589917036</v>
       </c>
       <c r="L24">
-        <v>-0.01083850135238501</v>
+        <v>-0.01045816410858164</v>
       </c>
       <c r="P24">
-        <v>-0.01099588352595884</v>
+        <v>-0.01049314386893144</v>
       </c>
       <c r="Q24">
-        <v>-0.01084565127645651</v>
+        <v>-0.01045871160858712</v>
       </c>
       <c r="R24">
-        <v>-0.01084565127645651</v>
+        <v>-0.01045871160858712</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1697,40 +1700,40 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>0.08773937360539373</v>
+        <v>0.09919065264790652</v>
       </c>
       <c r="D25">
-        <v>-0.007245772692457727</v>
+        <v>0.001704990857049909</v>
       </c>
       <c r="F25">
-        <v>0.5943946146159461</v>
+        <v>0.5927132168031322</v>
       </c>
       <c r="G25">
-        <v>-0.0642494254244699</v>
+        <v>-0.05105577804155358</v>
       </c>
       <c r="H25">
-        <v>0.476333830439959</v>
+        <v>0.4704684255296627</v>
       </c>
       <c r="I25">
-        <v>0.03259230222192303</v>
+        <v>0.02282841738028418</v>
       </c>
       <c r="J25">
-        <v>-0.01000717783121753</v>
+        <v>-0.007920833412221665</v>
       </c>
       <c r="K25">
-        <v>0.4429848185178481</v>
+        <v>0.4524984770289848</v>
       </c>
       <c r="L25">
-        <v>0.4359537729995377</v>
+        <v>0.4282853689428537</v>
       </c>
       <c r="P25">
-        <v>0.436250102898501</v>
+        <v>0.4285998646459986</v>
       </c>
       <c r="Q25">
-        <v>0.4360157722001577</v>
+        <v>0.4283598549475985</v>
       </c>
       <c r="R25">
-        <v>0.4360157722001577</v>
+        <v>0.4283598549475985</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1739,40 +1742,40 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.09633776265937762</v>
+        <v>0.1673760162777601</v>
       </c>
       <c r="D26">
-        <v>0.01007396478473965</v>
+        <v>-0.01081725564017256</v>
       </c>
       <c r="F26">
-        <v>0.5931599696435997</v>
+        <v>0.5896366020163659</v>
       </c>
       <c r="G26">
-        <v>-0.04242774041864216</v>
+        <v>-0.05750110182813226</v>
       </c>
       <c r="H26">
-        <v>0.4695836199451139</v>
+        <v>0.4665913472253296</v>
       </c>
       <c r="I26">
-        <v>0.04493034366530343</v>
+        <v>0.01277455895574559</v>
       </c>
       <c r="J26">
-        <v>-0.006961597342675675</v>
+        <v>0.01383784745590384</v>
       </c>
       <c r="K26">
-        <v>0.4348174629041746</v>
+        <v>0.3778745178107452</v>
       </c>
       <c r="L26">
-        <v>0.4279674887716749</v>
+        <v>0.4246620669106207</v>
       </c>
       <c r="P26">
-        <v>0.4283177738871778</v>
+        <v>0.4248981638529816</v>
       </c>
       <c r="Q26">
-        <v>0.4280489397204894</v>
+        <v>0.4247144256351442</v>
       </c>
       <c r="R26">
-        <v>0.4280489397204894</v>
+        <v>0.4247144256351442</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1783,40 +1786,40 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.1431311741313117</v>
+        <v>0.1455072483510725</v>
       </c>
       <c r="D27">
-        <v>0.002818360048183601</v>
+        <v>-0.001261675212616752</v>
       </c>
       <c r="F27">
-        <v>0.003273461324734613</v>
+        <v>0.009710086345100864</v>
       </c>
       <c r="G27">
-        <v>-0.0446780675965457</v>
+        <v>-0.01257277590301193</v>
       </c>
       <c r="H27">
-        <v>0.4151530290812109</v>
+        <v>0.4238727766903223</v>
       </c>
       <c r="I27">
-        <v>-0.2269324320733243</v>
+        <v>-0.2385321439413215</v>
       </c>
       <c r="J27">
-        <v>-0.02604743378767761</v>
+        <v>-0.06700348974144195</v>
       </c>
       <c r="K27">
-        <v>0.4400138792601388</v>
+        <v>0.459746300461463</v>
       </c>
       <c r="L27">
-        <v>0.4326635355786354</v>
+        <v>0.4409245428052454</v>
       </c>
       <c r="P27">
-        <v>0.4327957374799574</v>
+        <v>0.4410248573822486</v>
       </c>
       <c r="Q27">
-        <v>0.4327015051030151</v>
+        <v>0.4409683093976831</v>
       </c>
       <c r="R27">
-        <v>0.4327015051030151</v>
+        <v>0.4409683093976831</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1825,40 +1828,40 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0.04863696115836962</v>
+        <v>0.06549815891498159</v>
       </c>
       <c r="D28">
-        <v>-0.01172729186127292</v>
+        <v>0.01474209685542097</v>
       </c>
       <c r="F28">
-        <v>0.01457451939774519</v>
+        <v>-0.009211701284117012</v>
       </c>
       <c r="G28">
-        <v>0.003671740829303472</v>
+        <v>0.009040791372276135</v>
       </c>
       <c r="H28">
-        <v>0.008859511266988111</v>
+        <v>-0.01185321055667363</v>
       </c>
       <c r="I28">
-        <v>-0.1100446323324463</v>
+        <v>-0.09418353175783531</v>
       </c>
       <c r="J28">
-        <v>0.0290624530772507</v>
+        <v>0.001235776474556063</v>
       </c>
       <c r="K28">
-        <v>0.007022121334221212</v>
+        <v>-0.01185216381452164</v>
       </c>
       <c r="L28">
-        <v>0.006845357936453579</v>
+        <v>-0.01241066930810669</v>
       </c>
       <c r="P28">
-        <v>0.00685030102450301</v>
+        <v>-0.01236245807162458</v>
       </c>
       <c r="Q28">
-        <v>0.006839548868395488</v>
+        <v>-0.01242625094826251</v>
       </c>
       <c r="R28">
-        <v>0.006839548868395488</v>
+        <v>-0.01242625094826251</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1869,40 +1872,40 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>0.006599940173999401</v>
+        <v>0.007876816530768166</v>
       </c>
       <c r="D29">
-        <v>-0.01902751617427517</v>
+        <v>-0.005577593131775931</v>
       </c>
       <c r="F29">
-        <v>-0.01660356793003568</v>
+        <v>0.009371477277714773</v>
       </c>
       <c r="G29">
-        <v>0.01862142961402629</v>
+        <v>0.004962187989693501</v>
       </c>
       <c r="H29">
-        <v>-0.0042783981124576</v>
+        <v>-0.001341667263460264</v>
       </c>
       <c r="I29">
-        <v>-0.02860754152607542</v>
+        <v>0.005237867500378674</v>
       </c>
       <c r="J29">
-        <v>-0.01129764455812404</v>
+        <v>-0.002848972579815377</v>
       </c>
       <c r="K29">
-        <v>-0.001514370807143708</v>
+        <v>-0.004771160399711605</v>
       </c>
       <c r="L29">
-        <v>-0.002209517806095178</v>
+        <v>-0.003589422743894228</v>
       </c>
       <c r="P29">
-        <v>-0.00230101906701019</v>
+        <v>-0.003472601866726019</v>
       </c>
       <c r="Q29">
-        <v>-0.002240420254404202</v>
+        <v>-0.003565770779657708</v>
       </c>
       <c r="R29">
-        <v>-0.002240420254404202</v>
+        <v>-0.003565770779657708</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1913,40 +1916,40 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.001480829198808292</v>
+        <v>-0.01016266770562668</v>
       </c>
       <c r="D30">
-        <v>-0.01022602807826028</v>
+        <v>0.004842115728421158</v>
       </c>
       <c r="F30">
-        <v>0.008902306817023068</v>
+        <v>0.005372205485722054</v>
       </c>
       <c r="G30">
-        <v>0.0008789569976550915</v>
+        <v>0.005086845736703717</v>
       </c>
       <c r="H30">
-        <v>0.003947914451252321</v>
+        <v>0.0007017805420200744</v>
       </c>
       <c r="I30">
-        <v>0.004515885597158856</v>
+        <v>0.004139124233391243</v>
       </c>
       <c r="J30">
-        <v>-0.01199451037421399</v>
+        <v>0.005751923585338996</v>
       </c>
       <c r="K30">
-        <v>0.002305453799054538</v>
+        <v>0.0008378502323785023</v>
       </c>
       <c r="L30">
-        <v>0.002797348467973484</v>
+        <v>0.0008451769884517698</v>
       </c>
       <c r="P30">
-        <v>0.002771507607715076</v>
+        <v>0.0008571264325712643</v>
       </c>
       <c r="Q30">
-        <v>0.002788398075883981</v>
+        <v>0.0008465244324652444</v>
       </c>
       <c r="R30">
-        <v>0.002788398075883981</v>
+        <v>0.0008465244324652444</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1957,40 +1960,40 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.01943442080634421</v>
+        <v>-0.003340524465405244</v>
       </c>
       <c r="D31">
-        <v>-0.02147488223874882</v>
+        <v>-0.01621171205411712</v>
       </c>
       <c r="F31">
-        <v>-0.006845922872459228</v>
+        <v>-0.005498346882983469</v>
       </c>
       <c r="G31">
-        <v>-0.01344812985304632</v>
+        <v>0.003809769110720682</v>
       </c>
       <c r="H31">
-        <v>-0.01444136988385253</v>
+        <v>-0.005587783535774747</v>
       </c>
       <c r="I31">
-        <v>-0.00801503211215032</v>
+        <v>-0.007371376633713765</v>
       </c>
       <c r="J31">
-        <v>-0.009560124297046382</v>
+        <v>0.002906600834187286</v>
       </c>
       <c r="K31">
-        <v>-0.01636509809565098</v>
+        <v>-0.00610571910105719</v>
       </c>
       <c r="L31">
-        <v>-0.01576329609763296</v>
+        <v>-0.005913610739136107</v>
       </c>
       <c r="P31">
-        <v>-0.01583683893836839</v>
+        <v>-0.005907308603073085</v>
       </c>
       <c r="Q31">
-        <v>-0.01577639524976395</v>
+        <v>-0.005913830567138305</v>
       </c>
       <c r="R31">
-        <v>-0.01577639524976395</v>
+        <v>-0.005913830567138305</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2001,40 +2004,40 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.006479617912796179</v>
+        <v>-0.005999392103993921</v>
       </c>
       <c r="D32">
-        <v>-0.01185691121856911</v>
+        <v>-0.002000245952002459</v>
       </c>
       <c r="F32">
-        <v>-0.009170253031702531</v>
+        <v>0.008912986025129861</v>
       </c>
       <c r="G32">
-        <v>0.006467995040822638</v>
+        <v>0.006169150461070159</v>
       </c>
       <c r="H32">
-        <v>-0.002715252800934031</v>
+        <v>0.01252667718595514</v>
       </c>
       <c r="I32">
-        <v>-0.003057444414574445</v>
+        <v>0.0001985048299850483</v>
       </c>
       <c r="J32">
-        <v>-0.006210182038856562</v>
+        <v>-0.01263978096552467</v>
       </c>
       <c r="K32">
-        <v>-0.0009851366618513666</v>
+        <v>0.01291281662112817</v>
       </c>
       <c r="L32">
-        <v>-0.001031230582312306</v>
+        <v>0.01268414656284146</v>
       </c>
       <c r="P32">
-        <v>-0.001079850430798504</v>
+        <v>0.01262143453821435</v>
       </c>
       <c r="Q32">
-        <v>-0.001031880778318808</v>
+        <v>0.01267663119076631</v>
       </c>
       <c r="R32">
-        <v>-0.001031880778318808</v>
+        <v>0.01267663119076631</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2045,40 +2048,40 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>-0.0006584098745840987</v>
+        <v>0.0126901604949016</v>
       </c>
       <c r="D33">
-        <v>0.004970403265704033</v>
+        <v>0.003653658888536589</v>
       </c>
       <c r="F33">
-        <v>-0.001871472618714726</v>
+        <v>0.001380712453807125</v>
       </c>
       <c r="G33">
-        <v>0.0006861360926068889</v>
+        <v>-0.008704699902196559</v>
       </c>
       <c r="H33">
-        <v>0.01109373436290231</v>
+        <v>0.005438801246669215</v>
       </c>
       <c r="I33">
-        <v>-0.004213428546134285</v>
+        <v>-0.006149240353492403</v>
       </c>
       <c r="J33">
-        <v>0.01001206747137253</v>
+        <v>0.0004818923319401225</v>
       </c>
       <c r="K33">
-        <v>0.01288793446487934</v>
+        <v>0.004540438617404386</v>
       </c>
       <c r="L33">
-        <v>0.01246075130860751</v>
+        <v>0.005330855837308558</v>
       </c>
       <c r="P33">
-        <v>0.01235782508757825</v>
+        <v>0.005346855365468554</v>
       </c>
       <c r="Q33">
-        <v>0.0124366897363669</v>
+        <v>0.005322312005223121</v>
       </c>
       <c r="R33">
-        <v>0.0124366897363669</v>
+        <v>0.005322312005223121</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2089,40 +2092,40 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.008774804715748047</v>
+        <v>-0.01471156580711566</v>
       </c>
       <c r="D34">
-        <v>0.006450291148502912</v>
+        <v>-0.00284086194440862</v>
       </c>
       <c r="F34">
-        <v>-0.02364665253246653</v>
+        <v>-0.01545543851855439</v>
       </c>
       <c r="G34">
-        <v>-0.001207555017409613</v>
+        <v>-0.003549272919083084</v>
       </c>
       <c r="H34">
-        <v>-0.02640812359636472</v>
+        <v>-0.01077969076866571</v>
       </c>
       <c r="I34">
-        <v>0.005540973859409738</v>
+        <v>0.0007637254516372545</v>
       </c>
       <c r="J34">
-        <v>0.003443934019169265</v>
+        <v>0.005580771879286725</v>
       </c>
       <c r="K34">
-        <v>-0.02598403690384037</v>
+        <v>-0.007986748339867483</v>
       </c>
       <c r="L34">
-        <v>-0.02582367316223673</v>
+        <v>-0.009247164416471646</v>
       </c>
       <c r="P34">
-        <v>-0.0258387098823871</v>
+        <v>-0.009207752552077526</v>
       </c>
       <c r="Q34">
-        <v>-0.02582941207829412</v>
+        <v>-0.009258004784580047</v>
       </c>
       <c r="R34">
-        <v>-0.02582941207829412</v>
+        <v>-0.009258004784580047</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2133,40 +2136,40 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>0.01442517355225174</v>
+        <v>0.001821813102218131</v>
       </c>
       <c r="D35">
-        <v>-0.02203354159633542</v>
+        <v>0.006341509179415093</v>
       </c>
       <c r="F35">
-        <v>0.005982882983828831</v>
+        <v>0.006480369556803696</v>
       </c>
       <c r="G35">
-        <v>-0.01256165105250504</v>
+        <v>0.003578717220758328</v>
       </c>
       <c r="H35">
-        <v>-0.0004139903643898445</v>
+        <v>0.01449052049279745</v>
       </c>
       <c r="I35">
-        <v>-0.02271681113916811</v>
+        <v>0.005079311138793112</v>
       </c>
       <c r="J35">
-        <v>-0.0008211367700292145</v>
+        <v>-0.009498591277941422</v>
       </c>
       <c r="K35">
-        <v>-0.0008033027240330272</v>
+        <v>0.01507359870673599</v>
       </c>
       <c r="L35">
-        <v>-0.0008123473881234739</v>
+        <v>0.01492498122524981</v>
       </c>
       <c r="P35">
-        <v>-0.0008498008644980087</v>
+        <v>0.01502138094621381</v>
       </c>
       <c r="Q35">
-        <v>-0.0008080413560804135</v>
+        <v>0.01494249818942498</v>
       </c>
       <c r="R35">
-        <v>-0.0008080413560804135</v>
+        <v>0.01494249818942498</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2177,40 +2180,40 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>-0.01615216909752169</v>
+        <v>-0.00187349495473495</v>
       </c>
       <c r="D36">
-        <v>-0.008016407720164077</v>
+        <v>-0.00246730699267307</v>
       </c>
       <c r="F36">
-        <v>0.01018715118587151</v>
+        <v>-0.0133228301532283</v>
       </c>
       <c r="G36">
-        <v>-0.005210336900339354</v>
+        <v>0.01010211108103205</v>
       </c>
       <c r="H36">
-        <v>0.006603151262062074</v>
+        <v>-0.01380522454466253</v>
       </c>
       <c r="I36">
-        <v>-0.001580935119809351</v>
+        <v>-0.002463099948631</v>
       </c>
       <c r="J36">
-        <v>0.01370695832049688</v>
+        <v>0.006353429110751817</v>
       </c>
       <c r="K36">
-        <v>0.006191937913919379</v>
+        <v>-0.01256497778964978</v>
       </c>
       <c r="L36">
-        <v>0.006055398528553986</v>
+        <v>-0.01294170329741703</v>
       </c>
       <c r="P36">
-        <v>0.006073694616736946</v>
+        <v>-0.01291980544519805</v>
       </c>
       <c r="Q36">
-        <v>0.006071065776710658</v>
+        <v>-0.01294002923740029</v>
       </c>
       <c r="R36">
-        <v>0.006071065776710658</v>
+        <v>-0.01294002923740029</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2221,40 +2224,40 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.01195457344754573</v>
+        <v>0.01133589476935895</v>
       </c>
       <c r="D37">
-        <v>0.0003113487631134876</v>
+        <v>-0.01519095769990958</v>
       </c>
       <c r="F37">
-        <v>0.006024589860245899</v>
+        <v>0.006825637868256379</v>
       </c>
       <c r="G37">
-        <v>0.008587043193177881</v>
+        <v>0.003660778684507401</v>
       </c>
       <c r="H37">
-        <v>0.001104489841627706</v>
+        <v>0.006584963074903903</v>
       </c>
       <c r="I37">
-        <v>-0.007428041774280417</v>
+        <v>-0.006601019178010191</v>
       </c>
       <c r="J37">
-        <v>-0.007762661274068602</v>
+        <v>0.001334296378400705</v>
       </c>
       <c r="K37">
-        <v>0.0002921918189219181</v>
+        <v>0.005529759403297594</v>
       </c>
       <c r="L37">
-        <v>0.0002448277344482773</v>
+        <v>0.006363189687631897</v>
       </c>
       <c r="P37">
-        <v>0.0002078287340782873</v>
+        <v>0.006458676484586765</v>
       </c>
       <c r="Q37">
-        <v>0.0002368014743680147</v>
+        <v>0.006389741643897416</v>
       </c>
       <c r="R37">
-        <v>0.0002368014743680147</v>
+        <v>0.006389741643897416</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2265,40 +2268,40 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>0.01502852527828525</v>
+        <v>-0.01789340239093402</v>
       </c>
       <c r="D38">
-        <v>0.004457391692573916</v>
+        <v>-0.01165142259251423</v>
       </c>
       <c r="F38">
-        <v>0.02366435195664352</v>
+        <v>0.01450217124102171</v>
       </c>
       <c r="G38">
-        <v>-0.01501344376969104</v>
+        <v>0.003861939094217021</v>
       </c>
       <c r="H38">
-        <v>0.01387901213103751</v>
+        <v>0.005407066363126697</v>
       </c>
       <c r="I38">
-        <v>0.008847916840479168</v>
+        <v>0.002032871528328715</v>
       </c>
       <c r="J38">
-        <v>-0.008445556701715705</v>
+        <v>-0.001044519399762135</v>
       </c>
       <c r="K38">
-        <v>0.01106898878668989</v>
+        <v>0.004804083816040839</v>
       </c>
       <c r="L38">
-        <v>0.01205166699651667</v>
+        <v>0.005529723895297239</v>
       </c>
       <c r="P38">
-        <v>0.01202032182020322</v>
+        <v>0.005557444279574443</v>
       </c>
       <c r="Q38">
-        <v>0.0120245298362453</v>
+        <v>0.005543976235439761</v>
       </c>
       <c r="R38">
-        <v>0.0120245298362453</v>
+        <v>0.005543976235439761</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2309,40 +2312,40 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>-0.008642828882428288</v>
+        <v>0.02248593382485934</v>
       </c>
       <c r="D39">
-        <v>-0.004132257473322575</v>
+        <v>0.007499023610990236</v>
       </c>
       <c r="F39">
-        <v>-0.01418778255387783</v>
+        <v>-0.003316054245160543</v>
       </c>
       <c r="G39">
-        <v>0.005733342317915222</v>
+        <v>0.001440563586869737</v>
       </c>
       <c r="H39">
-        <v>-0.001540147442849448</v>
+        <v>0.01377236861364719</v>
       </c>
       <c r="I39">
-        <v>0.002760649527606495</v>
+        <v>0.01599667244796672</v>
       </c>
       <c r="J39">
-        <v>-0.001826596011901267</v>
+        <v>0.001504639414090289</v>
       </c>
       <c r="K39">
-        <v>0.0005042504690425046</v>
+        <v>0.01908374732283747</v>
       </c>
       <c r="L39">
-        <v>0.0008130116601301167</v>
+        <v>0.01820125799001258</v>
       </c>
       <c r="P39">
-        <v>0.0006968650149686502</v>
+        <v>0.01806753542467535</v>
       </c>
       <c r="Q39">
-        <v>0.0008083532480835325</v>
+        <v>0.01816026706960267</v>
       </c>
       <c r="R39">
-        <v>0.0008083532480835325</v>
+        <v>0.01816026706960267</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2353,40 +2356,84 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>0.0004311348523113486</v>
+        <v>-0.004151035637510356</v>
       </c>
       <c r="D40">
-        <v>0.006039517200395172</v>
+        <v>-0.003414632878146329</v>
       </c>
       <c r="F40">
-        <v>-0.005373853385738534</v>
+        <v>-0.009977408403774084</v>
       </c>
       <c r="G40">
-        <v>-0.004848428767695341</v>
+        <v>5.021041473655023E-05</v>
       </c>
       <c r="H40">
-        <v>-0.01503622462188095</v>
+        <v>-0.004720580799061878</v>
       </c>
       <c r="I40">
-        <v>-0.007635652876356529</v>
+        <v>0.002853156496531565</v>
       </c>
       <c r="J40">
-        <v>0.004007741155041387</v>
+        <v>0.00865497725716257</v>
       </c>
       <c r="K40">
-        <v>-0.002670340562703406</v>
+        <v>0.01072411551524115</v>
       </c>
       <c r="L40">
-        <v>-0.002849317120493172</v>
+        <v>0.0105814101458141</v>
       </c>
       <c r="P40">
-        <v>-0.002814089644140896</v>
+        <v>0.01054123704941237</v>
       </c>
       <c r="Q40">
-        <v>-0.002855685916556859</v>
+        <v>0.01056170145361702</v>
       </c>
       <c r="R40">
-        <v>-0.002855685916556859</v>
+        <v>0.01056170145361702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>-0.05279352731993527</v>
+      </c>
+      <c r="D41">
+        <v>-0.0122099903780999</v>
+      </c>
+      <c r="F41">
+        <v>0.004943791669437916</v>
+      </c>
+      <c r="G41">
+        <v>-0.003406627931499262</v>
+      </c>
+      <c r="H41">
+        <v>0.003525921091543713</v>
+      </c>
+      <c r="I41">
+        <v>-0.02046326118063261</v>
+      </c>
+      <c r="J41">
+        <v>-0.01378704049546164</v>
+      </c>
+      <c r="K41">
+        <v>0.0008523968845239689</v>
+      </c>
+      <c r="L41">
+        <v>0.002702773467027735</v>
+      </c>
+      <c r="P41">
+        <v>0.002705571207055712</v>
+      </c>
+      <c r="Q41">
+        <v>0.002693408306934083</v>
+      </c>
+      <c r="R41">
+        <v>0.002693408306934083</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_-2.xlsx
@@ -794,40 +794,40 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.01080214626002146</v>
+        <v>0.01576216223666409</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01336723145349665</v>
       </c>
       <c r="F4">
-        <v>-0.0105000399090004</v>
+        <v>0.009693991341409419</v>
       </c>
       <c r="G4">
-        <v>-0.01250489041275983</v>
-      </c>
-      <c r="H4">
-        <v>-0.002418120411021756</v>
+        <v>0.004213028108344743</v>
       </c>
       <c r="I4">
-        <v>-0.001743410765434108</v>
+        <v>0.01602166793055926</v>
       </c>
       <c r="J4">
-        <v>-0.008278779962030608</v>
+        <v>-0.001158367750730207</v>
       </c>
       <c r="K4">
-        <v>-4.83436204834362E-05</v>
+        <v>-0.008429238030035679</v>
       </c>
       <c r="L4">
-        <v>-0.0009224457452244575</v>
+        <v>-0.003451660815557527</v>
+      </c>
+      <c r="O4">
+        <v>-0.008429238030035679</v>
       </c>
       <c r="P4">
-        <v>-0.000904548513045485</v>
+        <v>0.000960447729736195</v>
       </c>
       <c r="Q4">
-        <v>-0.0009358662213586622</v>
+        <v>-0.003379167518838747</v>
       </c>
       <c r="R4">
-        <v>-0.0009358662213586622</v>
+        <v>-0.003379167518838747</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -836,40 +836,40 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.003003192942031929</v>
+        <v>0.009724218958743603</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>0.006072419247543266</v>
       </c>
       <c r="F5">
-        <v>0.00102692503026925</v>
+        <v>-0.00239607815152967</v>
       </c>
       <c r="G5">
-        <v>-8.307015898194919E-05</v>
-      </c>
-      <c r="H5">
-        <v>0.001436059172670137</v>
+        <v>-0.009532935288306857</v>
       </c>
       <c r="I5">
-        <v>0.0002557752145577522</v>
+        <v>-0.007467227122346049</v>
       </c>
       <c r="J5">
-        <v>-0.01265543107524944</v>
+        <v>-0.01251638413616422</v>
       </c>
       <c r="K5">
-        <v>0.002670387818703878</v>
+        <v>0.005320649943344471</v>
       </c>
       <c r="L5">
-        <v>0.002786119719861197</v>
+        <v>0.002253786751935492</v>
+      </c>
+      <c r="O5">
+        <v>0.005320649943344471</v>
       </c>
       <c r="P5">
-        <v>0.002775353271753532</v>
+        <v>0.01115054222702871</v>
       </c>
       <c r="Q5">
-        <v>0.0027833500118335</v>
+        <v>0.002984847079347604</v>
       </c>
       <c r="R5">
-        <v>0.0027833500118335</v>
+        <v>0.002984847079347604</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -878,40 +878,40 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.354778302307783</v>
+        <v>0.3737439050621434</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01110381576562072</v>
       </c>
       <c r="F6">
-        <v>0.02193382949133829</v>
+        <v>-0.05531864664637201</v>
       </c>
       <c r="G6">
-        <v>0.01237070745309813</v>
-      </c>
-      <c r="H6">
-        <v>0.01332260527955622</v>
+        <v>0.05782587753213585</v>
       </c>
       <c r="I6">
-        <v>-0.5943589160075892</v>
+        <v>-0.5817323076998664</v>
       </c>
       <c r="J6">
-        <v>0.008937060053321124</v>
+        <v>-0.008238676844291727</v>
       </c>
       <c r="K6">
-        <v>0.01144136669441367</v>
+        <v>0.03581763997842191</v>
       </c>
       <c r="L6">
-        <v>0.01134901656549017</v>
+        <v>0.02515481016169197</v>
+      </c>
+      <c r="O6">
+        <v>0.03581763997842191</v>
       </c>
       <c r="P6">
-        <v>0.01134952322949523</v>
+        <v>-0.01844070010207138</v>
       </c>
       <c r="Q6">
-        <v>0.01133263241332632</v>
+        <v>0.02091857689923935</v>
       </c>
       <c r="R6">
-        <v>0.01133263241332632</v>
+        <v>0.02091857689923935</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -920,40 +920,40 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.003832337558323376</v>
+        <v>-0.02513841582216628</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.006688919049756786</v>
       </c>
       <c r="F7">
-        <v>0.001276601472766015</v>
+        <v>0.01477360593478017</v>
       </c>
       <c r="G7">
-        <v>-0.000838965010184826</v>
-      </c>
-      <c r="H7">
-        <v>-0.001456958511983674</v>
+        <v>0.01980614225272036</v>
       </c>
       <c r="I7">
-        <v>0.02556667485966675</v>
+        <v>0.009531088574431237</v>
       </c>
       <c r="J7">
-        <v>-0.0266211158046542</v>
+        <v>0.01124622721612234</v>
       </c>
       <c r="K7">
-        <v>-0.001154105495541055</v>
+        <v>-0.02421532994976241</v>
       </c>
       <c r="L7">
-        <v>-0.001307325169073252</v>
+        <v>-0.02032843158188067</v>
+      </c>
+      <c r="O7">
+        <v>-0.02421532994976241</v>
       </c>
       <c r="P7">
-        <v>-0.001319077573190776</v>
+        <v>-0.02944782042192903</v>
       </c>
       <c r="Q7">
-        <v>-0.001305128833051288</v>
+        <v>-0.02144820212446783</v>
       </c>
       <c r="R7">
-        <v>-0.001305128833051288</v>
+        <v>-0.02144820212446783</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -962,40 +962,40 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.2988218832242188</v>
+        <v>0.3278439770203903</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-0.009816383126163833</v>
+        <v>0.005553450254123737</v>
       </c>
       <c r="G8">
-        <v>-0.02937401658091367</v>
-      </c>
-      <c r="H8">
-        <v>-0.009290392497107459</v>
+        <v>-0.0735150631385461</v>
       </c>
       <c r="I8">
-        <v>0.7469607722216077</v>
+        <v>0.7333475884791238</v>
       </c>
       <c r="J8">
-        <v>-0.009005877230383597</v>
+        <v>0.02868611687793244</v>
       </c>
       <c r="K8">
-        <v>-0.009983462079834622</v>
+        <v>-0.02853528633065432</v>
       </c>
       <c r="L8">
-        <v>-0.009547626347476263</v>
+        <v>-0.006397089075629503</v>
+      </c>
+      <c r="O8">
+        <v>-0.02853528633065432</v>
       </c>
       <c r="P8">
-        <v>-0.009546904475469044</v>
+        <v>0.03344609666670416</v>
       </c>
       <c r="Q8">
-        <v>-0.009556784219567844</v>
+        <v>-0.002452857519520354</v>
       </c>
       <c r="R8">
-        <v>-0.009556784219567844</v>
+        <v>-0.002452857519520354</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1006,40 +1006,40 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.3769159289291593</v>
+        <v>0.3427374853596302</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.02439284590014069</v>
       </c>
       <c r="F9">
-        <v>0.004433135564331355</v>
+        <v>-0.003986796716439765</v>
       </c>
       <c r="G9">
-        <v>0.008881869335043297</v>
-      </c>
-      <c r="H9">
-        <v>-0.003800141051474812</v>
+        <v>-0.006166442474303042</v>
       </c>
       <c r="I9">
-        <v>0.00191133395511334</v>
+        <v>0.01279000984729954</v>
       </c>
       <c r="J9">
-        <v>-0.0004908831002083623</v>
+        <v>0.01994522245605273</v>
       </c>
       <c r="K9">
-        <v>-0.004137721649377217</v>
+        <v>0.003120523394914018</v>
       </c>
       <c r="L9">
-        <v>-0.004181390849813909</v>
+        <v>0.007072200253656935</v>
+      </c>
+      <c r="O9">
+        <v>0.003120523394914018</v>
       </c>
       <c r="P9">
-        <v>-0.004245514050455141</v>
+        <v>0.007738568494999209</v>
       </c>
       <c r="Q9">
-        <v>-0.004188791681887916</v>
+        <v>0.006570215350171769</v>
       </c>
       <c r="R9">
-        <v>-0.004188791681887916</v>
+        <v>0.006570215350171769</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1050,40 +1050,40 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.5574921559509216</v>
+        <v>0.5865169471631579</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.004397815043461059</v>
       </c>
       <c r="F10">
-        <v>0.008304715655047156</v>
+        <v>-0.004049605027227229</v>
       </c>
       <c r="G10">
-        <v>0.004238531629010168</v>
-      </c>
-      <c r="H10">
-        <v>0.01163876465119221</v>
+        <v>0.01235152233819955</v>
       </c>
       <c r="I10">
-        <v>-0.01012023258520233</v>
+        <v>0.01992213955385065</v>
       </c>
       <c r="J10">
-        <v>-0.006924136504182038</v>
+        <v>-0.007927171556689061</v>
       </c>
       <c r="K10">
-        <v>0.01046011468460115</v>
+        <v>1.933067492044026E-05</v>
       </c>
       <c r="L10">
-        <v>0.01104638447046384</v>
+        <v>0.01205455817413338</v>
+      </c>
+      <c r="O10">
+        <v>1.933067492044026E-05</v>
       </c>
       <c r="P10">
-        <v>0.01101179673811797</v>
+        <v>0.005904316517402861</v>
       </c>
       <c r="Q10">
-        <v>0.01103683446236835</v>
+        <v>0.0103736556317672</v>
       </c>
       <c r="R10">
-        <v>0.01103683446236835</v>
+        <v>0.0103736556317672</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1094,40 +1094,40 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>6.707301667073016E-05</v>
+        <v>-0.01808422582307744</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.004133420260500167</v>
       </c>
       <c r="F11">
-        <v>-0.003084243210842432</v>
+        <v>-0.009130125470330559</v>
       </c>
       <c r="G11">
-        <v>0.01261869563231162</v>
-      </c>
-      <c r="H11">
-        <v>-0.008229048482262391</v>
+        <v>-0.02024885794042169</v>
       </c>
       <c r="I11">
-        <v>0.008494294644942947</v>
+        <v>0.0007367137271897013</v>
       </c>
       <c r="J11">
-        <v>-0.002454951878608941</v>
+        <v>-0.004558584431294549</v>
       </c>
       <c r="K11">
-        <v>-0.009225311444253115</v>
+        <v>0.00670558488563429</v>
       </c>
       <c r="L11">
-        <v>-0.008399745719997458</v>
+        <v>0.01030694924746648</v>
+      </c>
+      <c r="O11">
+        <v>0.00670558488563429</v>
       </c>
       <c r="P11">
-        <v>-0.008359366007593658</v>
+        <v>0.01535677643544493</v>
       </c>
       <c r="Q11">
-        <v>-0.00838369703983697</v>
+        <v>0.01064159117964975</v>
       </c>
       <c r="R11">
-        <v>-0.00838369703983697</v>
+        <v>0.01064159117964975</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1138,40 +1138,40 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.01893634331736343</v>
+        <v>-0.0150655744582362</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>-0.0004598750920954107</v>
       </c>
       <c r="F12">
-        <v>0.0104862902968629</v>
+        <v>-0.01975461585432249</v>
       </c>
       <c r="G12">
-        <v>0.001315588965103805</v>
-      </c>
-      <c r="H12">
-        <v>0.02154842977232772</v>
+        <v>-0.01972371472133616</v>
       </c>
       <c r="I12">
-        <v>0.006143799601437996</v>
+        <v>-0.005090723507638544</v>
       </c>
       <c r="J12">
-        <v>-0.004910278722313414</v>
+        <v>-0.007258162708002597</v>
       </c>
       <c r="K12">
-        <v>0.02287958815279588</v>
+        <v>0.01516652412793515</v>
       </c>
       <c r="L12">
-        <v>0.02292127422121274</v>
+        <v>0.009865806137741087</v>
+      </c>
+      <c r="O12">
+        <v>0.01516652412793515</v>
       </c>
       <c r="P12">
-        <v>0.02299414272194143</v>
+        <v>0.02120040481848158</v>
       </c>
       <c r="Q12">
-        <v>0.02294287393342874</v>
+        <v>0.01134585681026514</v>
       </c>
       <c r="R12">
-        <v>0.02294287393342874</v>
+        <v>0.01134585681026514</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1182,40 +1182,40 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>-0.007852825806528258</v>
+        <v>-0.02249846744625597</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01789522008244812</v>
       </c>
       <c r="F13">
-        <v>-0.002579464585794646</v>
+        <v>-0.01889983453164906</v>
       </c>
       <c r="G13">
-        <v>0.01639248125573622</v>
-      </c>
-      <c r="H13">
-        <v>-0.006411973941770424</v>
+        <v>-0.004820897881879734</v>
       </c>
       <c r="I13">
-        <v>-0.01262923426229234</v>
+        <v>-0.02014743299050207</v>
       </c>
       <c r="J13">
-        <v>0.02063641120120117</v>
+        <v>0.004768461359983844</v>
       </c>
       <c r="K13">
-        <v>-0.006882128924821289</v>
+        <v>0.01628534922757176</v>
       </c>
       <c r="L13">
-        <v>-0.007314780217147802</v>
+        <v>0.003348305440387152</v>
+      </c>
+      <c r="O13">
+        <v>0.01628534922757176</v>
       </c>
       <c r="P13">
-        <v>-0.007386052921860529</v>
+        <v>0.005838523686005027</v>
       </c>
       <c r="Q13">
-        <v>-0.007358082877580828</v>
+        <v>0.005067765851544242</v>
       </c>
       <c r="R13">
-        <v>-0.007358082877580828</v>
+        <v>0.005067765851544242</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1224,40 +1224,40 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.4112763511047635</v>
+        <v>-0.4260749392987669</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.002548948912834784</v>
       </c>
       <c r="F14">
-        <v>0.002048863328488633</v>
+        <v>0.009514559456359472</v>
       </c>
       <c r="G14">
-        <v>0.01321389735726085</v>
-      </c>
-      <c r="H14">
-        <v>-0.01070588427667679</v>
+        <v>0.006193633211016148</v>
       </c>
       <c r="I14">
-        <v>-0.01474451205944512</v>
+        <v>0.007529318661217375</v>
       </c>
       <c r="J14">
-        <v>-0.002868523222936301</v>
+        <v>0.007991009333150894</v>
       </c>
       <c r="K14">
-        <v>-0.01230737773507378</v>
+        <v>-0.009718260906660912</v>
       </c>
       <c r="L14">
-        <v>-0.01241820272818203</v>
+        <v>-0.01226990687179625</v>
+      </c>
+      <c r="O14">
+        <v>-0.009718260906660912</v>
       </c>
       <c r="P14">
-        <v>-0.01236786645967866</v>
+        <v>-0.01541284533411335</v>
       </c>
       <c r="Q14">
-        <v>-0.012403100332031</v>
+        <v>-0.01342317047563646</v>
       </c>
       <c r="R14">
-        <v>-0.012403100332031</v>
+        <v>-0.01342317047563646</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1268,40 +1268,40 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.0117427695934277</v>
+        <v>-0.01257656420977895</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.0148354756438942</v>
       </c>
       <c r="F15">
-        <v>0.002094017432940174</v>
+        <v>0.0005299976438848994</v>
       </c>
       <c r="G15">
-        <v>-0.003751484378507192</v>
-      </c>
-      <c r="H15">
-        <v>-0.003118775921542449</v>
+        <v>-0.001425208328653797</v>
       </c>
       <c r="I15">
-        <v>-0.005578426303784263</v>
+        <v>-0.01973141498274635</v>
       </c>
       <c r="J15">
-        <v>-0.006816157650701276</v>
+        <v>0.01233385640026012</v>
       </c>
       <c r="K15">
-        <v>-0.004395542323955423</v>
+        <v>-0.01427630671357016</v>
       </c>
       <c r="L15">
-        <v>-0.003442157098421571</v>
+        <v>-0.02363769792080647</v>
+      </c>
+      <c r="O15">
+        <v>-0.01427630671357016</v>
       </c>
       <c r="P15">
-        <v>-0.003346304721463047</v>
+        <v>-0.02206151949384944</v>
       </c>
       <c r="Q15">
-        <v>-0.003446795626467956</v>
+        <v>-0.02265899930669989</v>
       </c>
       <c r="R15">
-        <v>-0.003446795626467956</v>
+        <v>-0.02265899930669989</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1312,40 +1312,40 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.003294698456946985</v>
+        <v>0.0233922321436098</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.00557609391175876</v>
       </c>
       <c r="F16">
-        <v>0.0006557983385579834</v>
+        <v>-0.01475244931222292</v>
       </c>
       <c r="G16">
-        <v>-0.0164867434798925</v>
-      </c>
-      <c r="H16">
-        <v>-0.005096218211034628</v>
+        <v>0.01048837005876681</v>
       </c>
       <c r="I16">
-        <v>0.00153395702733957</v>
+        <v>-0.01009286144565819</v>
       </c>
       <c r="J16">
-        <v>-0.01704978438818862</v>
+        <v>-0.002120297395848669</v>
       </c>
       <c r="K16">
-        <v>-0.005218602496186026</v>
+        <v>0.01177592949464008</v>
       </c>
       <c r="L16">
-        <v>-0.005229201532292016</v>
+        <v>0.007386974362929253</v>
+      </c>
+      <c r="O16">
+        <v>0.01177592949464008</v>
       </c>
       <c r="P16">
-        <v>-0.005313411677134117</v>
+        <v>-0.00272356723220894</v>
       </c>
       <c r="Q16">
-        <v>-0.005254364356543644</v>
+        <v>0.006138612266718415</v>
       </c>
       <c r="R16">
-        <v>-0.005254364356543644</v>
+        <v>0.006138612266718415</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1356,40 +1356,40 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>0.01641959740419598</v>
+        <v>0.01204221931136301</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.009034717558308173</v>
       </c>
       <c r="F17">
-        <v>0.003957391167573912</v>
+        <v>-0.0008375383685091757</v>
       </c>
       <c r="G17">
-        <v>-0.001542284555275954</v>
-      </c>
-      <c r="H17">
-        <v>0.005705420835936773</v>
+        <v>0.009918529598029859</v>
       </c>
       <c r="I17">
-        <v>-0.007704725165047252</v>
+        <v>0.005232056482016137</v>
       </c>
       <c r="J17">
-        <v>-0.02073844174530282</v>
+        <v>0.002020004596405976</v>
       </c>
       <c r="K17">
-        <v>0.005734298673342987</v>
+        <v>-0.006030382293061414</v>
       </c>
       <c r="L17">
-        <v>0.005950905035509051</v>
+        <v>0.002988126313557343</v>
+      </c>
+      <c r="O17">
+        <v>-0.006030382293061414</v>
       </c>
       <c r="P17">
-        <v>0.005839851502398515</v>
+        <v>-0.007514073602379409</v>
       </c>
       <c r="Q17">
-        <v>0.005932736855327369</v>
+        <v>0.001446365974709193</v>
       </c>
       <c r="R17">
-        <v>0.005932736855327369</v>
+        <v>0.001446365974709193</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1400,40 +1400,40 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>-0.06579630736596308</v>
+        <v>-0.04592763653386015</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.01983304059217202</v>
       </c>
       <c r="F18">
-        <v>0.002340428183404282</v>
+        <v>0.008265842475631613</v>
       </c>
       <c r="G18">
-        <v>0.01666939704081095</v>
-      </c>
-      <c r="H18">
-        <v>0.008864536670382265</v>
+        <v>0.008230578654839478</v>
       </c>
       <c r="I18">
-        <v>-0.006987430209874301</v>
+        <v>0.02158593895728693</v>
       </c>
       <c r="J18">
-        <v>-0.003835572088353532</v>
+        <v>0.01586896620344784</v>
       </c>
       <c r="K18">
-        <v>0.009363887973638879</v>
+        <v>-0.01464024094738192</v>
       </c>
       <c r="L18">
-        <v>0.009617594520175944</v>
+        <v>-0.01078213153551133</v>
+      </c>
+      <c r="O18">
+        <v>-0.01464024094738192</v>
       </c>
       <c r="P18">
-        <v>0.009554066183540662</v>
+        <v>-0.01323150622549224</v>
       </c>
       <c r="Q18">
-        <v>0.009592312919923128</v>
+        <v>-0.01211194663126097</v>
       </c>
       <c r="R18">
-        <v>0.009592312919923128</v>
+        <v>-0.01211194663126097</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1442,40 +1442,40 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>-0.05015956396559564</v>
+        <v>-0.07764872782656539</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02969885914656174</v>
       </c>
       <c r="F19">
-        <v>-0.008666828906668289</v>
+        <v>0.02134023131131651</v>
       </c>
       <c r="G19">
-        <v>0.02144259526668678</v>
-      </c>
-      <c r="H19">
-        <v>-0.02386210175110352</v>
+        <v>-0.00239373412528897</v>
       </c>
       <c r="I19">
-        <v>-0.001986706879867069</v>
+        <v>-0.03150953646028327</v>
       </c>
       <c r="J19">
-        <v>-0.009439206560437672</v>
+        <v>0.0009520038134601465</v>
       </c>
       <c r="K19">
-        <v>-0.0269652691976527</v>
+        <v>0.005736967728321996</v>
       </c>
       <c r="L19">
-        <v>-0.02588489573484896</v>
+        <v>0.01674152994922027</v>
+      </c>
+      <c r="O19">
+        <v>0.005736967728321996</v>
       </c>
       <c r="P19">
-        <v>-0.02600097270800973</v>
+        <v>0.01920339729603592</v>
       </c>
       <c r="Q19">
-        <v>-0.02592378406323784</v>
+        <v>0.0167886348894711</v>
       </c>
       <c r="R19">
-        <v>-0.02592378406323784</v>
+        <v>0.0167886348894711</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1486,40 +1486,40 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>-0.08333994331739944</v>
+        <v>-0.09210554403406843</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.01146375905692905</v>
       </c>
       <c r="F20">
-        <v>-0.0006486020584860206</v>
+        <v>0.002318798815848547</v>
       </c>
       <c r="G20">
-        <v>0.007397380615190078</v>
-      </c>
-      <c r="H20">
-        <v>-0.002385551833921896</v>
+        <v>-0.0172343854107972</v>
       </c>
       <c r="I20">
-        <v>0.1154791564707916</v>
+        <v>0.1189018228895886</v>
       </c>
       <c r="J20">
-        <v>-0.01950119811046017</v>
+        <v>0.005423116708491523</v>
       </c>
       <c r="K20">
-        <v>-0.002337100847371009</v>
+        <v>-0.006579296041246989</v>
       </c>
       <c r="L20">
-        <v>-0.00213238804532388</v>
+        <v>-0.003072428193267255</v>
+      </c>
+      <c r="O20">
+        <v>-0.006579296041246989</v>
       </c>
       <c r="P20">
-        <v>-0.002134410093344101</v>
+        <v>0.005191526493891862</v>
       </c>
       <c r="Q20">
-        <v>-0.002151316473513165</v>
+        <v>-0.002917797984771037</v>
       </c>
       <c r="R20">
-        <v>-0.002151316473513165</v>
+        <v>-0.002917797984771037</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1530,40 +1530,40 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>0.08181340170213403</v>
+        <v>0.0576395486162515</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.001318366811042069</v>
       </c>
       <c r="F21">
-        <v>0.3238908854749089</v>
+        <v>0.1383098563860143</v>
       </c>
       <c r="G21">
-        <v>-0.0348868665601471</v>
-      </c>
-      <c r="H21">
-        <v>0.2727571378320289</v>
+        <v>-0.02656924921585937</v>
       </c>
       <c r="I21">
-        <v>0.02341872118218721</v>
+        <v>-0.02979526890166967</v>
       </c>
       <c r="J21">
-        <v>0.004294508089222365</v>
+        <v>-0.009338948067797025</v>
       </c>
       <c r="K21">
-        <v>0.2352379879803799</v>
+        <v>-0.1443022436534657</v>
       </c>
       <c r="L21">
-        <v>0.2543128799511288</v>
+        <v>-0.1349576749311925</v>
+      </c>
+      <c r="O21">
+        <v>-0.1443022436534657</v>
       </c>
       <c r="P21">
-        <v>0.2546776296507763</v>
+        <v>-0.1016016055659247</v>
       </c>
       <c r="Q21">
-        <v>0.2544057694560577</v>
+        <v>-0.1329677802360862</v>
       </c>
       <c r="R21">
-        <v>0.2544057694560577</v>
+        <v>-0.1329677802360862</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1572,40 +1572,40 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>-0.01362622571226226</v>
+        <v>-0.007684883538999396</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.01387510750460638</v>
       </c>
       <c r="F22">
-        <v>-0.0005952439379524394</v>
+        <v>0.00775971450549667</v>
       </c>
       <c r="G22">
-        <v>-0.004096695148270762</v>
-      </c>
-      <c r="H22">
-        <v>-0.00405424917734183</v>
+        <v>-0.01632519530345741</v>
       </c>
       <c r="I22">
-        <v>0.01017545225375452</v>
+        <v>0.01394638246144636</v>
       </c>
       <c r="J22">
-        <v>-0.002336823077473176</v>
+        <v>0.0002023534071890875</v>
       </c>
       <c r="K22">
-        <v>-0.004768819175688192</v>
+        <v>0.001790203122024026</v>
       </c>
       <c r="L22">
-        <v>-0.004874346768743467</v>
+        <v>0.002728926753346181</v>
+      </c>
+      <c r="O22">
+        <v>0.001790203122024026</v>
       </c>
       <c r="P22">
-        <v>-0.004930593541305935</v>
+        <v>0.00973096052559559</v>
       </c>
       <c r="Q22">
-        <v>-0.004894231740942318</v>
+        <v>0.003698063039694685</v>
       </c>
       <c r="R22">
-        <v>-0.004894231740942318</v>
+        <v>0.003698063039694685</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1614,40 +1614,40 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>0.1088045239160452</v>
+        <v>0.03134647752903447</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.0149504814446571</v>
       </c>
       <c r="F23">
-        <v>0.3716640644126407</v>
+        <v>0.1066252037822427</v>
       </c>
       <c r="G23">
-        <v>-0.03413152785339573</v>
-      </c>
-      <c r="H23">
-        <v>0.303986908079496</v>
+        <v>-0.03598045547871558</v>
       </c>
       <c r="I23">
-        <v>0.01114916173549162</v>
+        <v>-0.0392241346016354</v>
       </c>
       <c r="J23">
-        <v>0.002656103162310683</v>
+        <v>-0.007439228425795005</v>
       </c>
       <c r="K23">
-        <v>0.2583764537797645</v>
+        <v>-0.1284959229930588</v>
       </c>
       <c r="L23">
-        <v>0.2797830591978306</v>
+        <v>-0.1261144915040924</v>
+      </c>
+      <c r="O23">
+        <v>-0.1284959229930588</v>
       </c>
       <c r="P23">
-        <v>0.2801515151575152</v>
+        <v>-0.09226966427903222</v>
       </c>
       <c r="Q23">
-        <v>0.2798727129267271</v>
+        <v>-0.1242029740349742</v>
       </c>
       <c r="R23">
-        <v>0.2798727129267271</v>
+        <v>-0.1242029740349742</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1656,40 +1656,40 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>-0.00781443309014433</v>
+        <v>-0.005117568409713021</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>0.01006229391920099</v>
       </c>
       <c r="F24">
-        <v>0.004602067558020675</v>
+        <v>-0.02108662667681748</v>
       </c>
       <c r="G24">
-        <v>0.009934144672912404</v>
-      </c>
-      <c r="H24">
-        <v>-0.008581154409375905</v>
+        <v>0.009176860981616944</v>
       </c>
       <c r="I24">
-        <v>-0.01292283772522838</v>
+        <v>0.009725614148329349</v>
       </c>
       <c r="J24">
-        <v>-0.002101844066937295</v>
+        <v>-0.004682244471208897</v>
       </c>
       <c r="K24">
-        <v>-0.01071703589917036</v>
+        <v>0.01240772181368481</v>
       </c>
       <c r="L24">
-        <v>-0.01045816410858164</v>
+        <v>0.01206648650640826</v>
+      </c>
+      <c r="O24">
+        <v>0.01240772181368481</v>
       </c>
       <c r="P24">
-        <v>-0.01049314386893144</v>
+        <v>0.01143100361463345</v>
       </c>
       <c r="Q24">
-        <v>-0.01045871160858712</v>
+        <v>0.01233225455454712</v>
       </c>
       <c r="R24">
-        <v>-0.01045871160858712</v>
+        <v>0.01233225455454712</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1700,40 +1700,40 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>0.09919065264790652</v>
+        <v>-2.188858534068391E-06</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.03664334511918182</v>
       </c>
       <c r="F25">
-        <v>0.5927132168031322</v>
+        <v>0.3019574601922034</v>
       </c>
       <c r="G25">
-        <v>-0.05105577804155358</v>
-      </c>
-      <c r="H25">
-        <v>0.4704684255296627</v>
+        <v>0.003004656185785643</v>
       </c>
       <c r="I25">
-        <v>0.02282841738028418</v>
+        <v>-0.05910584886044903</v>
       </c>
       <c r="J25">
-        <v>-0.007920833412221665</v>
+        <v>0.01378354814783253</v>
       </c>
       <c r="K25">
-        <v>0.4524984770289848</v>
+        <v>0.05822639686898527</v>
       </c>
       <c r="L25">
-        <v>0.4282853689428537</v>
+        <v>-0.3600760499269392</v>
+      </c>
+      <c r="O25">
+        <v>0.05822639686898527</v>
       </c>
       <c r="P25">
-        <v>0.4285998646459986</v>
+        <v>-0.2974132977606437</v>
       </c>
       <c r="Q25">
-        <v>0.4283598549475985</v>
+        <v>-0.3592217607452717</v>
       </c>
       <c r="R25">
-        <v>0.4283598549475985</v>
+        <v>-0.3592217607452717</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1742,40 +1742,40 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>0.1673760162777601</v>
+        <v>0.05144432992579588</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.008350478931500486</v>
       </c>
       <c r="F26">
-        <v>0.5896366020163659</v>
+        <v>0.2586774052565348</v>
       </c>
       <c r="G26">
-        <v>-0.05750110182813226</v>
-      </c>
-      <c r="H26">
-        <v>0.4665913472253296</v>
+        <v>-0.02728002499500781</v>
       </c>
       <c r="I26">
-        <v>0.01277455895574559</v>
+        <v>-0.01088691813817606</v>
       </c>
       <c r="J26">
-        <v>0.01383784745590384</v>
+        <v>0.003209023470656686</v>
       </c>
       <c r="K26">
-        <v>0.3778745178107452</v>
+        <v>-0.3535096261795387</v>
       </c>
       <c r="L26">
-        <v>0.4246620669106207</v>
+        <v>-0.2772260377905769</v>
+      </c>
+      <c r="O26">
+        <v>-0.3535096261795387</v>
       </c>
       <c r="P26">
-        <v>0.4248981638529816</v>
+        <v>-0.2138124793779751</v>
       </c>
       <c r="Q26">
-        <v>0.4247144256351442</v>
+        <v>-0.2743768381803083</v>
       </c>
       <c r="R26">
-        <v>0.4247144256351442</v>
+        <v>-0.2743768381803083</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1786,40 +1786,40 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>0.1455072483510725</v>
+        <v>0.1407913374588576</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.002101177898420568</v>
       </c>
       <c r="F27">
-        <v>0.009710086345100864</v>
+        <v>-0.4673928757708534</v>
       </c>
       <c r="G27">
-        <v>-0.01257277590301193</v>
-      </c>
-      <c r="H27">
-        <v>0.4238727766903223</v>
+        <v>0.1215709035782058</v>
       </c>
       <c r="I27">
-        <v>-0.2385321439413215</v>
+        <v>-0.3098684399944176</v>
       </c>
       <c r="J27">
-        <v>-0.06700348974144195</v>
+        <v>-0.1227597849699632</v>
       </c>
       <c r="K27">
-        <v>0.459746300461463</v>
+        <v>-0.03587152575553276</v>
       </c>
       <c r="L27">
-        <v>0.4409245428052454</v>
+        <v>-0.2488278294562077</v>
+      </c>
+      <c r="O27">
+        <v>-0.03587152575553276</v>
       </c>
       <c r="P27">
-        <v>0.4410248573822486</v>
+        <v>-0.2867006202979581</v>
       </c>
       <c r="Q27">
-        <v>0.4409683093976831</v>
+        <v>-0.2513755057029591</v>
       </c>
       <c r="R27">
-        <v>0.4409683093976831</v>
+        <v>-0.2513755057029591</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1828,40 +1828,40 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>0.06549815891498159</v>
+        <v>0.06413951382750893</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.004653312987935771</v>
       </c>
       <c r="F28">
-        <v>-0.009211701284117012</v>
+        <v>0.04215466142890675</v>
       </c>
       <c r="G28">
-        <v>0.009040791372276135</v>
-      </c>
-      <c r="H28">
-        <v>-0.01185321055667363</v>
+        <v>-0.02591694378525319</v>
       </c>
       <c r="I28">
-        <v>-0.09418353175783531</v>
+        <v>-0.08282504209436263</v>
       </c>
       <c r="J28">
-        <v>0.001235776474556063</v>
+        <v>0.02157037261868154</v>
       </c>
       <c r="K28">
-        <v>-0.01185216381452164</v>
+        <v>-0.02306874720317329</v>
       </c>
       <c r="L28">
-        <v>-0.01241066930810669</v>
+        <v>-0.01441612873533421</v>
+      </c>
+      <c r="O28">
+        <v>-0.02306874720317329</v>
       </c>
       <c r="P28">
-        <v>-0.01236245807162458</v>
+        <v>-0.001286214155289499</v>
       </c>
       <c r="Q28">
-        <v>-0.01242625094826251</v>
+        <v>-0.01359447438478545</v>
       </c>
       <c r="R28">
-        <v>-0.01242625094826251</v>
+        <v>-0.01359447438478545</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1872,40 +1872,40 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>0.007876816530768166</v>
+        <v>-0.00761613457559782</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.02471540435927661</v>
       </c>
       <c r="F29">
-        <v>0.009371477277714773</v>
+        <v>-0.007131131068630826</v>
       </c>
       <c r="G29">
-        <v>0.004962187989693501</v>
-      </c>
-      <c r="H29">
-        <v>-0.001341667263460264</v>
+        <v>-0.0190627675726252</v>
       </c>
       <c r="I29">
-        <v>0.005237867500378674</v>
+        <v>0.01816636629016425</v>
       </c>
       <c r="J29">
-        <v>-0.002848972579815377</v>
+        <v>0.009077360786721562</v>
       </c>
       <c r="K29">
-        <v>-0.004771160399711605</v>
+        <v>0.02481535935037708</v>
       </c>
       <c r="L29">
-        <v>-0.003589422743894228</v>
+        <v>0.02084798763229268</v>
+      </c>
+      <c r="O29">
+        <v>0.02481535935037708</v>
       </c>
       <c r="P29">
-        <v>-0.003472601866726019</v>
+        <v>0.02692602747380436</v>
       </c>
       <c r="Q29">
-        <v>-0.003565770779657708</v>
+        <v>0.0210828923630085</v>
       </c>
       <c r="R29">
-        <v>-0.003565770779657708</v>
+        <v>0.0210828923630085</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1916,40 +1916,40 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.01016266770562668</v>
+        <v>0.02790073352935779</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.001205948682948291</v>
       </c>
       <c r="F30">
-        <v>0.005372205485722054</v>
+        <v>0.001941346487790681</v>
       </c>
       <c r="G30">
-        <v>0.005086845736703717</v>
-      </c>
-      <c r="H30">
-        <v>0.0007017805420200744</v>
+        <v>-0.008494037960489711</v>
       </c>
       <c r="I30">
-        <v>0.004139124233391243</v>
+        <v>-0.001507927880221174</v>
       </c>
       <c r="J30">
-        <v>0.005751923585338996</v>
+        <v>-0.01044743040304489</v>
       </c>
       <c r="K30">
-        <v>0.0008378502323785023</v>
+        <v>0.005617521938708671</v>
       </c>
       <c r="L30">
-        <v>0.0008451769884517698</v>
+        <v>0.004237079506884949</v>
+      </c>
+      <c r="O30">
+        <v>0.005617521938708671</v>
       </c>
       <c r="P30">
-        <v>0.0008571264325712643</v>
+        <v>0.01069487686363375</v>
       </c>
       <c r="Q30">
-        <v>0.0008465244324652444</v>
+        <v>0.004744951248528779</v>
       </c>
       <c r="R30">
-        <v>0.0008465244324652444</v>
+        <v>0.004744951248528779</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1960,40 +1960,40 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.003340524465405244</v>
+        <v>-0.02549435502710017</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>-0.003522348715405023</v>
       </c>
       <c r="F31">
-        <v>-0.005498346882983469</v>
+        <v>0.004325901477642734</v>
       </c>
       <c r="G31">
-        <v>0.003809769110720682</v>
-      </c>
-      <c r="H31">
-        <v>-0.005587783535774747</v>
+        <v>-0.01697803289923414</v>
       </c>
       <c r="I31">
-        <v>-0.007371376633713765</v>
+        <v>0.01111143204631415</v>
       </c>
       <c r="J31">
-        <v>0.002906600834187286</v>
+        <v>-0.003398287802468674</v>
       </c>
       <c r="K31">
-        <v>-0.00610571910105719</v>
+        <v>0.001622603198817728</v>
       </c>
       <c r="L31">
-        <v>-0.005913610739136107</v>
+        <v>-0.001826897954837215</v>
+      </c>
+      <c r="O31">
+        <v>0.001622603198817728</v>
       </c>
       <c r="P31">
-        <v>-0.005907308603073085</v>
+        <v>0.002164893513385355</v>
       </c>
       <c r="Q31">
-        <v>-0.005913830567138305</v>
+        <v>-0.000974456941490141</v>
       </c>
       <c r="R31">
-        <v>-0.005913830567138305</v>
+        <v>-0.000974456941490141</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2004,40 +2004,40 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.005999392103993921</v>
+        <v>-0.00765462079951811</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.001351321835477252</v>
       </c>
       <c r="F32">
-        <v>0.008912986025129861</v>
+        <v>-0.01274542826093926</v>
       </c>
       <c r="G32">
-        <v>0.006169150461070159</v>
-      </c>
-      <c r="H32">
-        <v>0.01252667718595514</v>
+        <v>-0.01077466560130956</v>
       </c>
       <c r="I32">
-        <v>0.0001985048299850483</v>
+        <v>0.0007400382646597338</v>
       </c>
       <c r="J32">
-        <v>-0.01263978096552467</v>
+        <v>-0.006678604345371172</v>
       </c>
       <c r="K32">
-        <v>0.01291281662112817</v>
+        <v>0.009196149504574033</v>
       </c>
       <c r="L32">
-        <v>0.01268414656284146</v>
+        <v>0.01043442470328987</v>
+      </c>
+      <c r="O32">
+        <v>0.009196149504574033</v>
       </c>
       <c r="P32">
-        <v>0.01262143453821435</v>
+        <v>0.01603222660683387</v>
       </c>
       <c r="Q32">
-        <v>0.01267663119076631</v>
+        <v>0.01103345937143773</v>
       </c>
       <c r="R32">
-        <v>0.01267663119076631</v>
+        <v>0.01103345937143773</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2048,40 +2048,40 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.0126901604949016</v>
+        <v>-0.009166716121805569</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>0.002954197080486708</v>
       </c>
       <c r="F33">
-        <v>0.001380712453807125</v>
+        <v>-0.007942408548497721</v>
       </c>
       <c r="G33">
-        <v>-0.008704699902196559</v>
-      </c>
-      <c r="H33">
-        <v>0.005438801246669215</v>
+        <v>0.003066420259116748</v>
       </c>
       <c r="I33">
-        <v>-0.006149240353492403</v>
+        <v>-0.005476485940400044</v>
       </c>
       <c r="J33">
-        <v>0.0004818923319401225</v>
+        <v>0.003543155481709179</v>
       </c>
       <c r="K33">
-        <v>0.004540438617404386</v>
+        <v>0.001986000688651412</v>
       </c>
       <c r="L33">
-        <v>0.005330855837308558</v>
+        <v>-0.007930384707684786</v>
+      </c>
+      <c r="O33">
+        <v>0.001986000688651412</v>
       </c>
       <c r="P33">
-        <v>0.005346855365468554</v>
+        <v>-0.01033562362555297</v>
       </c>
       <c r="Q33">
-        <v>0.005322312005223121</v>
+        <v>-0.008596458450900988</v>
       </c>
       <c r="R33">
-        <v>0.005322312005223121</v>
+        <v>-0.008596458450900988</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2092,40 +2092,40 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>-0.01471156580711566</v>
+        <v>0.01049954283393244</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.005598435206492442</v>
       </c>
       <c r="F34">
-        <v>-0.01545543851855439</v>
+        <v>0.004626001747782382</v>
       </c>
       <c r="G34">
-        <v>-0.003549272919083084</v>
-      </c>
-      <c r="H34">
-        <v>-0.01077969076866571</v>
+        <v>-0.0001434206143312892</v>
       </c>
       <c r="I34">
-        <v>0.0007637254516372545</v>
+        <v>0.008978378779337636</v>
       </c>
       <c r="J34">
-        <v>0.005580771879286725</v>
+        <v>0.01928384492172725</v>
       </c>
       <c r="K34">
-        <v>-0.007986748339867483</v>
+        <v>0.006017303064049101</v>
       </c>
       <c r="L34">
-        <v>-0.009247164416471646</v>
+        <v>0.01404116480062476</v>
+      </c>
+      <c r="O34">
+        <v>0.006017303064049101</v>
       </c>
       <c r="P34">
-        <v>-0.009207752552077526</v>
+        <v>0.004626517052167605</v>
       </c>
       <c r="Q34">
-        <v>-0.009258004784580047</v>
+        <v>0.01176557961198842</v>
       </c>
       <c r="R34">
-        <v>-0.009258004784580047</v>
+        <v>0.01176557961198842</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2136,40 +2136,40 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>0.001821813102218131</v>
+        <v>-0.01711835417262294</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02153207117219623</v>
       </c>
       <c r="F35">
-        <v>0.006480369556803696</v>
+        <v>0.02026668453093987</v>
       </c>
       <c r="G35">
-        <v>0.003578717220758328</v>
-      </c>
-      <c r="H35">
-        <v>0.01449052049279745</v>
+        <v>-0.004105797338225423</v>
       </c>
       <c r="I35">
-        <v>0.005079311138793112</v>
+        <v>-0.003000321132429934</v>
       </c>
       <c r="J35">
-        <v>-0.009498591277941422</v>
+        <v>-0.01604494001490378</v>
       </c>
       <c r="K35">
-        <v>0.01507359870673599</v>
+        <v>-0.01967938033671367</v>
       </c>
       <c r="L35">
-        <v>0.01492498122524981</v>
+        <v>-0.01833682662136295</v>
+      </c>
+      <c r="O35">
+        <v>-0.01967938033671367</v>
       </c>
       <c r="P35">
-        <v>0.01502138094621381</v>
+        <v>-0.01091582522742125</v>
       </c>
       <c r="Q35">
-        <v>0.01494249818942498</v>
+        <v>-0.01751998745253969</v>
       </c>
       <c r="R35">
-        <v>0.01494249818942498</v>
+        <v>-0.01751998745253969</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2180,40 +2180,40 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>-0.00187349495473495</v>
+        <v>-0.01030697478105195</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.02644204994293196</v>
       </c>
       <c r="F36">
-        <v>-0.0133228301532283</v>
+        <v>0.005461137131170489</v>
       </c>
       <c r="G36">
-        <v>0.01010211108103205</v>
-      </c>
-      <c r="H36">
-        <v>-0.01380522454466253</v>
+        <v>-0.0002906388646861555</v>
       </c>
       <c r="I36">
-        <v>-0.002463099948631</v>
+        <v>-0.01890555971096807</v>
       </c>
       <c r="J36">
-        <v>0.006353429110751817</v>
+        <v>0.0047687955663348</v>
       </c>
       <c r="K36">
-        <v>-0.01256497778964978</v>
+        <v>1.545778484855095E-06</v>
       </c>
       <c r="L36">
-        <v>-0.01294170329741703</v>
+        <v>-0.004533544688668009</v>
+      </c>
+      <c r="O36">
+        <v>1.545778484855095E-06</v>
       </c>
       <c r="P36">
-        <v>-0.01291980544519805</v>
+        <v>-0.002484751230240543</v>
       </c>
       <c r="Q36">
-        <v>-0.01294002923740029</v>
+        <v>-0.005173476403698337</v>
       </c>
       <c r="R36">
-        <v>-0.01294002923740029</v>
+        <v>-0.005173476403698337</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2224,40 +2224,40 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.01133589476935895</v>
+        <v>-0.004169800232960898</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>0.001271292683472441</v>
       </c>
       <c r="F37">
-        <v>0.006825637868256379</v>
+        <v>-0.01648262817310293</v>
       </c>
       <c r="G37">
-        <v>0.003660778684507401</v>
-      </c>
-      <c r="H37">
-        <v>0.006584963074903903</v>
+        <v>-0.018458661363399</v>
       </c>
       <c r="I37">
-        <v>-0.006601019178010191</v>
+        <v>0.01154666580092154</v>
       </c>
       <c r="J37">
-        <v>0.001334296378400705</v>
+        <v>0.008671352539198198</v>
       </c>
       <c r="K37">
-        <v>0.005529759403297594</v>
+        <v>0.006280458121406659</v>
       </c>
       <c r="L37">
-        <v>0.006363189687631897</v>
+        <v>0.004541076449961433</v>
+      </c>
+      <c r="O37">
+        <v>0.006280458121406659</v>
       </c>
       <c r="P37">
-        <v>0.006458676484586765</v>
+        <v>0.01157128933492855</v>
       </c>
       <c r="Q37">
-        <v>0.006389741643897416</v>
+        <v>0.004738527666392032</v>
       </c>
       <c r="R37">
-        <v>0.006389741643897416</v>
+        <v>0.004738527666392032</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2268,40 +2268,40 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.01789340239093402</v>
+        <v>0.001130434881578859</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.02904849227532322</v>
       </c>
       <c r="F38">
-        <v>0.01450217124102171</v>
+        <v>-0.01151855585513156</v>
       </c>
       <c r="G38">
-        <v>0.003861939094217021</v>
-      </c>
-      <c r="H38">
-        <v>0.005407066363126697</v>
+        <v>0.0200796551652415</v>
       </c>
       <c r="I38">
-        <v>0.002032871528328715</v>
+        <v>0.02597044359582419</v>
       </c>
       <c r="J38">
-        <v>-0.001044519399762135</v>
+        <v>0.002181156431614289</v>
       </c>
       <c r="K38">
-        <v>0.004804083816040839</v>
+        <v>0.0182490264249705</v>
       </c>
       <c r="L38">
-        <v>0.005529723895297239</v>
+        <v>0.02175021132639706</v>
+      </c>
+      <c r="O38">
+        <v>0.0182490264249705</v>
       </c>
       <c r="P38">
-        <v>0.005557444279574443</v>
+        <v>0.00174520513352097</v>
       </c>
       <c r="Q38">
-        <v>0.005543976235439761</v>
+        <v>0.02008270545907519</v>
       </c>
       <c r="R38">
-        <v>0.005543976235439761</v>
+        <v>0.02008270545907519</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2312,40 +2312,40 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>0.02248593382485934</v>
+        <v>0.0002646847830819286</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.0001962822468705418</v>
       </c>
       <c r="F39">
-        <v>-0.003316054245160543</v>
+        <v>-0.004770973258089286</v>
       </c>
       <c r="G39">
-        <v>0.001440563586869737</v>
-      </c>
-      <c r="H39">
-        <v>0.01377236861364719</v>
+        <v>-0.0152289805169634</v>
       </c>
       <c r="I39">
-        <v>0.01599667244796672</v>
+        <v>-0.005298685403667265</v>
       </c>
       <c r="J39">
-        <v>0.001504639414090289</v>
+        <v>-0.003844807392125166</v>
       </c>
       <c r="K39">
-        <v>0.01908374732283747</v>
+        <v>0.01892473748065148</v>
       </c>
       <c r="L39">
-        <v>0.01820125799001258</v>
+        <v>0.01443266232447685</v>
+      </c>
+      <c r="O39">
+        <v>0.01892473748065148</v>
       </c>
       <c r="P39">
-        <v>0.01806753542467535</v>
+        <v>0.01843292119290848</v>
       </c>
       <c r="Q39">
-        <v>0.01816026706960267</v>
+        <v>0.01569586746022533</v>
       </c>
       <c r="R39">
-        <v>0.01816026706960267</v>
+        <v>0.01569586746022533</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2356,40 +2356,40 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.004151035637510356</v>
+        <v>0.001898800477649166</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.01231259385534108</v>
       </c>
       <c r="F40">
-        <v>-0.009977408403774084</v>
+        <v>-0.01451127355446329</v>
       </c>
       <c r="G40">
-        <v>5.021041473655023E-05</v>
-      </c>
-      <c r="H40">
-        <v>-0.004720580799061878</v>
+        <v>-7.482840775189439E-05</v>
       </c>
       <c r="I40">
-        <v>0.002853156496531565</v>
+        <v>-0.01714062651590218</v>
       </c>
       <c r="J40">
-        <v>0.00865497725716257</v>
+        <v>0.0020186152482439</v>
       </c>
       <c r="K40">
-        <v>0.01072411551524115</v>
+        <v>0.02179674682459727</v>
       </c>
       <c r="L40">
-        <v>0.0105814101458141</v>
+        <v>0.01910046263247422</v>
+      </c>
+      <c r="O40">
+        <v>0.02179674682459727</v>
       </c>
       <c r="P40">
-        <v>0.01054123704941237</v>
+        <v>0.01353929102749154</v>
       </c>
       <c r="Q40">
-        <v>0.01056170145361702</v>
+        <v>0.01773819806650802</v>
       </c>
       <c r="R40">
-        <v>0.01056170145361702</v>
+        <v>0.01773819806650802</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2400,40 +2400,40 @@
         <v>84</v>
       </c>
       <c r="C41">
-        <v>-0.05279352731993527</v>
+        <v>-0.05306230914850334</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>-0.001536758907393196</v>
       </c>
       <c r="F41">
-        <v>0.004943791669437916</v>
+        <v>0.01060682806492709</v>
       </c>
       <c r="G41">
-        <v>-0.003406627931499262</v>
-      </c>
-      <c r="H41">
-        <v>0.003525921091543713</v>
+        <v>-0.00808432771797462</v>
       </c>
       <c r="I41">
-        <v>-0.02046326118063261</v>
+        <v>-0.007356865363644017</v>
       </c>
       <c r="J41">
-        <v>-0.01378704049546164</v>
+        <v>-0.01720245603503841</v>
       </c>
       <c r="K41">
-        <v>0.0008523968845239689</v>
+        <v>-0.0233089449276465</v>
       </c>
       <c r="L41">
-        <v>0.002702773467027735</v>
+        <v>-0.02695893083851704</v>
+      </c>
+      <c r="O41">
+        <v>-0.0233089449276465</v>
       </c>
       <c r="P41">
-        <v>0.002705571207055712</v>
+        <v>-0.02152613262044674</v>
       </c>
       <c r="Q41">
-        <v>0.002693408306934083</v>
+        <v>-0.02738713450753031</v>
       </c>
       <c r="R41">
-        <v>0.002693408306934083</v>
+        <v>-0.02738713450753031</v>
       </c>
     </row>
   </sheetData>
